--- a/Historias Ingles.xlsx
+++ b/Historias Ingles.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faell\OneDrive\Documentos\GitHub\EnglishBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faell\OneDrive\Documentos\GitHub\EnglishBotPrivate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905C04E5-A390-44AD-8675-D5C7B5B55063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB1413E-785F-4FC3-B9AB-8A575DEA5137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{04B5C9B6-076B-49B1-81FA-A5E93C0D6779}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="268">
   <si>
     <t xml:space="preserve">Ingles </t>
   </si>
@@ -267,25 +267,583 @@
     <t>historias</t>
   </si>
   <si>
-    <t>historia</t>
-  </si>
-  <si>
-    <t>não existem historias de nivel basico avancado</t>
-  </si>
-  <si>
     <t>Básico Avançado</t>
   </si>
   <si>
-    <t>não existem historias de nivel intermediario avancado</t>
-  </si>
-  <si>
-    <t>não existem historias de nivel fluente</t>
-  </si>
-  <si>
     <t>Fluente</t>
   </si>
   <si>
     <t>Intermediário Avançado</t>
+  </si>
+  <si>
+    <t>In a dusty attic, Sarah found a mysterious book. Its pages glowed softly, beckoning her to open it. As she flipped through, she discovered it held tales of far-off lands and mythical creatures. One story, in particular, caught her eye - the legend of the enchanted amulet. It was said to grant its wearer untold powers, but only to those pure of heart. Determined to find it, Sarah embarked on a quest filled with danger and adventure. Along the way, she faced trials that tested her courage and kindness. Finally, deep in the heart of the forest, she found the amulet and felt its magic coursing through her veins. With newfound power, Sarah vowed to use it wisely, knowing that true strength comes from within.</t>
+  </si>
+  <si>
+    <t>Num sótão empoeirado, Sarah encontrou um livro misterioso. Suas páginas brilhavam suavemente, chamando-a para abri-lo. Ao folheá-lo, descobriu que continha contos de terras distantes e criaturas míticas. Uma história, em particular, chamou sua atenção - a lenda do amuleto encantado. Dizia-se que concedia poderes inimagináveis ao seu usuário, mas apenas aos puros de coração. Determinada a encontrá-lo, Sarah embarcou em uma busca repleta de perigos e aventuras. No caminho, enfrentou provações que testaram sua coragem e bondade. Finalmente, no coração da floresta, encontrou o amuleto e sentiu sua magia correndo em suas veias. Com um novo poder, Sarah prometeu usá-lo com sabedoria, sabendo que a verdadeira força vem de dentro.</t>
+  </si>
+  <si>
+    <t>In a bustling city, a lonely robot wandered aimlessly through the streets. Its metal frame gleamed in the neon lights, but its circuits ached with loneliness. Day after day, it watched as people hurried past, never sparing it a second glance. But one day, a young girl stopped and smiled at the robot. She saw beyond its cold exterior and recognized the spark of life within. With a gentle touch, she repaired the robot's broken parts and welcomed it into her home. From that day on, the robot was no longer alone, for it had found a friend in the kindness of a stranger.</t>
+  </si>
+  <si>
+    <t>Em uma cidade movimentada, um robô solitário vagava sem rumo pelas ruas. Sua estrutura metálica brilhava nas luzes de néon, mas seus circuitos doíam de solidão. Dia após dia, observava as pessoas passarem apressadas, sem jamais lhe lançar um segundo olhar. Mas um dia, uma jovem parou e sorriu para o robô. Ela enxergou além de sua fria aparência e reconheceu a centelha de vida dentro dele. Com um toque suave, reparou as peças quebradas do robô e o acolheu em sua casa. A partir desse dia, o robô não estava mais sozinho, pois encontrara um amigo na bondade de um estranho.</t>
+  </si>
+  <si>
+    <t>Hidden behind a crumbling wall, there lay a secret garden untouched for years. Its flowers bloomed in vibrant hues, casting a spell of wonder upon all who entered. One day, a curious child stumbled upon the garden and was captivated by its beauty. With each step, they discovered hidden nooks and crannies, each more enchanting than the last. As they explored, they felt a sense of peace wash over them, as if the garden held the key to unlocking their heart's desires. And so, the secret garden became their sanctuary, a place of solace and serenity amidst the chaos of the world.</t>
+  </si>
+  <si>
+    <t>Escondido atrás de um muro desmoronado, havia um jardim secreto intocado por anos. Suas flores floresciam em tons vibrantes, lançando um feitiço de admiração sobre todos que entravam. Um dia, uma criança curiosa tropeçou no jardim e ficou cativada por sua beleza. A cada passo, descobriam recantos escondidos, cada um mais encantador que o anterior. Enquanto exploravam, sentiam uma sensação de paz os envolver, como se o jardim guardasse a chave para desbloquear os desejos de seus corações. E assim, o jardim secreto tornou-se seu refúgio, um lugar de consolo e serenidade em meio ao caos do mundo.</t>
+  </si>
+  <si>
+    <t>Late one night, Timmy spotted a strange light in his backyard. Curious, he crept outside to investigate. To his amazement, he found a small spaceship and a friendly alien named Zog. Zog had crash-landed on Earth and needed Timmy's help to fix his ship. Despite being scared, Timmy agreed to assist. Together, they worked through the night, using Timmy's tools to repair the spaceship. As dawn broke, the ship was finally fixed, and Zog bid Timmy farewell, promising to return one day. Timmy waved goodbye, grateful for the adventure and the new friend he had made from another world.</t>
+  </si>
+  <si>
+    <t>Tarde da noite, Timmy avistou uma luz estranha em seu quintal. Curioso, ele saiu sorrateiramente para investigar. Para sua surpresa, encontrou uma pequena nave espacial e um alienígena amigável chamado Zog. Zog havia feito um pouso forçado na Terra e precisava da ajuda de Timmy para consertar sua nave. Apesar de estar com medo, Timmy concordou em ajudar. Juntos, trabalharam a noite toda, usando as ferramentas de Timmy para consertar a nave espacial. Ao amanhecer, a nave finalmente foi consertada, e Zog se despediu de Timmy, prometendo retornar um dia. Timmy acenou adeus, grato pela aventura e pelo novo amigo que havia feito de outro mundo.</t>
+  </si>
+  <si>
+    <t>One sunny morning, Sarah found a lost puppy wandering in the park. Its tail wagged eagerly as it sniffed around, looking for its home. Sarah's heart went out to the little creature, so she decided to help. She asked around if anyone knew the puppy's owner, but no one did. Determined to reunite the puppy with its family, Sarah took it home and made flyers to hang around the neighborhood. After a few days of searching, a family came forward, grateful to have their beloved pet back. Sarah smiled, happy to have helped the lost puppy find its way home.</t>
+  </si>
+  <si>
+    <t>Em uma manhã ensolarada, Sarah encontrou um filhote perdido vagando no parque. Seu rabo balançava ansiosamente enquanto cheirava ao redor, procurando por sua casa. O coração de Sarah se compadeceu com a pequena criatura, então ela decidiu ajudar. Ela perguntou se alguém conhecia o dono do filhote, mas ninguém conhecia. Determinada a reunir o filhote com sua família, Sarah o levou para casa e fez panfletos para pendurar pelo bairro. Depois de alguns dias de busca, uma família se apresentou, grata por ter seu amado animal de volta. Sarah sorriu, feliz por ter ajudado o filhote perdido a encontrar o caminho para casa.</t>
+  </si>
+  <si>
+    <t>In a dusty old attic, Emily found a magical paintbrush hidden among the cobwebs. With each stroke, the paintbrush brought her drawings to life. She painted colorful landscapes and majestic creatures that danced off the page. Excitedly, Emily shared her creations with her friends and family, filling their lives with wonder and joy. But one day, she realized that her brush could also mend broken hearts and heal old wounds. From that day on, Emily used her gift to spread love and happiness wherever she went, proving that sometimes the most magical things are found in the simplest of places.</t>
+  </si>
+  <si>
+    <t>Em um sótão empoeirado, Emily encontrou um pincel mágico escondido entre as teias de aranha. Com cada traço, o pincel trazia suas desenhos à vida. Ela pintava paisagens coloridas e criaturas majestosas que dançavam fora da página. Animada, Emily compartilhava suas criações com seus amigos e família, enchendo suas vidas de admiração e alegria. Mas um dia, ela percebeu que seu pincel também podia consertar corações partidos e curar velhas feridas. A partir desse dia, Emily usou seu dom para espalhar amor e felicidade por onde passava, provando que às vezes as coisas mais mágicas são encontradas nos lugares mais simples.</t>
+  </si>
+  <si>
+    <t>In a bustling anthill, there lived a tiny ant named Andy. Despite being the smallest ant in the colony, Andy had the biggest heart. One day, when a heavy rainstorm flooded the anthill, Andy sprang into action. While others panicked, Andy gathered sticks and leaves to build a makeshift dam, saving the anthill from certain disaster. His bravery inspired the other ants to work together, and soon they had rebuilt their home stronger than before. From that day on, Andy was known as the bravest ant in the colony, proving that size doesn't matter when you have courage in your heart.</t>
+  </si>
+  <si>
+    <t>Em um formigueiro movimentado, vivia uma pequena formiga chamada Andy. Apesar de ser a menor formiga da colônia, Andy tinha o maior coração. Um dia, quando uma tempestade forte inundou o formigueiro, Andy entrou em ação. Enquanto outros entravam em pânico, Andy juntava gravetos e folhas para construir uma barragem improvisada, salvando o formigueiro de um desastre certo. Sua bravura inspirou as outras formigas a trabalharem juntas, e logo elas reconstruíram sua casa mais forte do que antes. A partir desse dia, Andy foi conhecido como a formiga mais corajosa da colônia, provando que o tamanho não importa quando se tem coragem no coração.</t>
+  </si>
+  <si>
+    <t>Deep in the forest, there was a hidden cave rumored to hold a magical necklace. Sarah, a brave adventurer, decided to seek out the necklace despite the dangers. As she ventured deeper into the cave, she encountered traps and puzzles designed to test her courage and wit. Finally, she reached the heart of the cave and found the necklace gleaming atop a pedestal. But as she reached for it, the cave began to rumble, and Sarah realized she had awakened an ancient guardian. With quick thinking, she solved the guardian's riddle, proving herself worthy of the necklace's power. Grateful, the guardian allowed her to take the necklace, knowing she would use its magic wisely.</t>
+  </si>
+  <si>
+    <t>No fundo da floresta, havia uma caverna escondida que se dizia conter um colar mágico. Sarah, uma corajosa aventureira, decidiu procurar o colar apesar dos perigos. Conforme ela se aventurava mais fundo na caverna, encontrava armadilhas e quebra-cabeças projetados para testar sua coragem e astúcia. Finalmente, ela chegou ao coração da caverna e encontrou o colar brilhando no topo de um pedestal. Mas, quando ela estendeu a mão para pegá-lo, a caverna começou a tremer, e Sarah percebeu que havia despertado um guardião antigo. Com pensamento rápido, ela resolveu o enigma do guardião, provando-se digna do poder do colar. Grato, o guardião permitiu que ela levasse o colar, sabendo que ela usaria sua magia com sabedoria.</t>
+  </si>
+  <si>
+    <t>In the icy waters of Antarctica, there lived a curious penguin named Pete. While other penguins were content to fish and swim, Pete dreamed of exploring beyond the frozen shores. One day, he embarked on a daring journey across the icy plains, facing blizzards and treacherous terrain along the way. Despite the challenges, Pete never lost sight of his goal. Finally, he reached a hidden valley filled with breathtaking sights he had never seen before. Overwhelmed with wonder, Pete realized that true adventure lies in the heart of those who dare to seek it. And so, with a flip of his wing, he set off to discover even more of the world's wonders.</t>
+  </si>
+  <si>
+    <t>Nas águas geladas da Antártica, vivia um pinguim curioso chamado Pete. Enquanto outros pinguins estavam satisfeitos em pescar e nadar, Pete sonhava em explorar além das margens congeladas. Um dia, ele embarcou em uma jornada ousada pelas planícies geladas, enfrentando tempestades de neve e terrenos traiçoeiros pelo caminho. Apesar dos desafios, Pete nunca perdeu de vista seu objetivo. Finalmente, ele chegou a um vale escondido repleto de vistas deslumbrantes que ele nunca havia visto antes. Sobrecarregado de admiração, Pete percebeu que a verdadeira aventura reside no coração daqueles que se atrevem a buscá-la. E assim, com um movimento de sua asa, ele partiu para descobrir ainda mais das maravilhas do mundo.</t>
+  </si>
+  <si>
+    <t>While cleaning out her attic, Lily stumbled upon an old map tucked away in a dusty chest. It was a treasure map, hinting at riches hidden deep within the nearby forest. Excited by the discovery, Lily decided to follow the map's clues in search of the lost treasure. She journeyed through the dense woods, following winding paths and crossing bubbling streams. Along the way, she encountered obstacles and challenges, but her determination never wavered. Finally, after hours of searching, Lily reached a clearing where an ancient oak tree stood. Digging beneath its roots, she unearthed a chest filled with glittering jewels and precious coins. With a joyful heart, Lily realized that the greatest treasure of all was the adventure itself.</t>
+  </si>
+  <si>
+    <t>Enquanto limpava seu sótão, Lily tropeçou em um mapa antigo escondido em um baú empoeirado. Era um mapa do tesouro, sugerindo riquezas escondidas nas profundezas da floresta próxima. Animada pela descoberta, Lily decidiu seguir as pistas do mapa em busca do tesouro perdido. Ela atravessou as densas matas, seguindo caminhos sinuosos e atravessando riachos borbulhantes. No caminho, encontrou obstáculos e desafios, mas sua determinação nunca vacilou. Finalmente, após horas de busca, Lily chegou a um claro onde uma antiga árvore de carvalho estava. Cavando sob suas raízes, ela desenterrou um baú cheio de jóias cintilantes e moedas preciosas. Com um coração alegre, Lily percebeu que o maior tesouro de todos era a própria aventura.</t>
+  </si>
+  <si>
+    <t>On a remote island, there stood a lighthouse said to possess magical powers. One stormy night, Sarah's ship was caught in a fierce tempest, and she feared for her life. Suddenly, a beam of light from the lighthouse cut through the darkness, guiding her to safety. Grateful for the lighthouse's aid, Sarah decided to investigate its mysteries. As she climbed to the top, she discovered a hidden chamber filled with ancient artifacts and glowing crystals. Among them, she found a magical compass that could guide her through any storm. With the compass in hand, Sarah set sail once more, knowing that the lighthouse would always be her beacon of hope.</t>
+  </si>
+  <si>
+    <t>Em uma ilha remota, havia um farol que se dizia possuir poderes mágicos. Uma noite tempestuosa, o navio de Sarah foi pego em uma tempestade feroz, e ela temia por sua vida. De repente, um feixe de luz do farol cortou a escuridão, guiando-a para a segurança. Grata pela ajuda do farol, Sarah decidiu investigar seus mistérios. Ao subir até o topo, descobriu uma câmara escondida cheia de artefatos antigos e cristais brilhantes. Entre eles, encontrou uma bússola mágica que poderia guiá-la através de qualquer tempestade. Com a bússola em mãos, Sarah partiu novamente, sabendo que o farol sempre seria seu farol de esperança.</t>
+  </si>
+  <si>
+    <t>Deep in the heart of the forest, there stood a magnificent tree rumored to possess the gift of speech. Sarah, a curious explorer, sought out the tree in hopes of hearing its wisdom. As she approached, the tree greeted her with a gentle rustle of leaves. Surprised but undeterred, Sarah asked the tree for guidance on her journey. In a soft, melodious voice, the tree shared ancient tales of the forest and whispered secrets of the earth. Grateful for the tree's wisdom, Sarah vowed to cherish its words and protect the forest for generations to come.</t>
+  </si>
+  <si>
+    <t>No coração da floresta, havia uma árvore magnífica que se dizia possuir o dom da fala. Sarah, uma exploradora curiosa, procurou a árvore na esperança de ouvir sua sabedoria. Ao se aproximar, a árvore a cumprimentou com um suave sussurro de folhas. Surpresa mas determinada, Sarah pediu à árvore orientação em sua jornada. Com uma voz suave e melodiosa, a árvore compartilhou antigas histórias da floresta e segredos sussurrados da terra. Grata pela sabedoria da árvore, Sarah prometeu acolher suas palavras e proteger a floresta para as gerações futuras.</t>
+  </si>
+  <si>
+    <t>On a bright and breezy day, Tommy ran to the park with his colorful kite in hand. With a joyful laugh, he watched it soar high into the sky, dancing with the wind. As Tommy ran across the grass, the kite followed, dipping and diving in playful arcs. Suddenly, a gust of wind caught the kite and whisked it away, soaring higher and higher into the clouds. Tommy's heart sank as he watched his kite disappear into the distance. But just as he was about to give up hope, the wind changed direction, and the kite came swooping back down into his waiting arms. With a triumphant smile, Tommy realized that even when things seem lost, they can always find their way back home.</t>
+  </si>
+  <si>
+    <t>Em um dia brilhante e ventoso, Tommy correu para o parque com sua colorida pipa na mão. Com uma risada alegre, ele a viu voar alto no céu, dançando com o vento. Enquanto Tommy corria pela grama, a pipa o seguia, mergulhando e subindo em arcos brincalhões. De repente, uma rajada de vento pegou a pipa e a levou embora, subindo mais e mais alto nas nuvens. O coração de Tommy afundou ao ver sua pipa desaparecer ao longe. Mas, justo quando ele estava prestes a perder a esperança, o vento mudou de direção, e a pipa veio planando de volta para seus braços esperando. Com um sorriso triunfante, Tommy percebeu que mesmo quando as coisas parecem perdidas, elas sempre podem encontrar o caminho de volta para casa.</t>
+  </si>
+  <si>
+    <t>In the heart of a mystical forest, there lived a friendly dragon named Spark. Unlike the fearsome dragons of legend, Spark loved to play and make new friends. One day, while exploring the forest, Spark stumbled upon a lost child crying by a stream. With a gentle roar, Spark comforted the child and led them safely home. Grateful for Spark's kindness, the child's village welcomed the dragon with open arms, knowing they had nothing to fear. From that day on, Spark and the children of the village played together in harmony, proving that even the fiercest creatures can have the gentlest hearts.</t>
+  </si>
+  <si>
+    <t>No coração de uma floresta mística, vivia um dragão amigável chamado Spark. Ao contrário dos temíveis dragões da lenda, Spark adorava brincar e fazer novos amigos. Um dia, enquanto explorava a floresta, Spark encontrou uma criança perdida chorando perto de um riacho. Com um rugido suave, Spark confortou a criança e a levou em segurança para casa. Grato pela bondade de Spark, a vila da criança recebeu o dragão de braços abertos, sabendo que não tinham nada a temer. A partir desse dia, Spark e as crianças da vila brincaram juntos em harmonia, provando que mesmo as criaturas mais ferozes podem ter os corações mais gentis.</t>
+  </si>
+  <si>
+    <t>In a tiny art shop nestled between the bustling city streets, there sat a set of magical paints waiting to be discovered. Lucy, a young artist with a passion for creativity, stumbled upon them one rainy afternoon. With a stroke of her brush, she found that the paints could bring her drawings to life, filling her world with color and wonder. Excitedly, Lucy painted scenes of far-off lands and whimsical creatures that danced off the canvas. As word of her magical paintings spread, people from all over the world came to marvel at her artwork. But for Lucy, the true magic lay in the joy of creating something beautiful for others to enjoy.</t>
+  </si>
+  <si>
+    <t>Em uma pequena loja de arte, escondida entre as movimentadas ruas da cidade, havia um conjunto de tintas mágicas esperando para serem descobertas. Lucy, uma jovem artista com paixão pela criatividade, as encontrou em uma tarde chuvosa. Com um traço de seu pincel, ela descobriu que as tintas poderiam dar vida às suas criações, enchendo seu mundo de cor e maravilha. Animada, Lucy pintou cenas de terras distantes e criaturas fantásticas que dançavam na tela. Conforme a notícia de suas pinturas mágicas se espalhava, pessoas de todo o mundo vinham maravilhar-se com sua arte. Mas para Lucy, a verdadeira magia estava na alegria de criar algo bonito para os outros apreciarem.</t>
+  </si>
+  <si>
+    <t>One sunny day at the beach, Emma was playing in the shallows when she noticed a dolphin stranded on the shore. Without hesitation, she rushed to help the struggling creature. With gentle hands, she pushed and guided the dolphin back into the safety of the ocean. Grateful, the dolphin swam circles around Emma, chirping happily before diving into the deep blue sea. From that day on, Emma and the dolphin became unlikely friends, meeting at the shore to play and swim together. Their bond taught Emma the true meaning of kindness and compassion.</t>
+  </si>
+  <si>
+    <t>Um dia ensolarado na praia, Emma estava brincando nas águas rasas quando ela avistou um golfinho encalhado na costa. Sem hesitar, ela correu para ajudar a criatura que lutava. Com mãos gentis, ela empurrou e guiou o golfinho de volta para a segurança do oceano. Grato, o golfinho nadou em círculos ao redor de Emma, emitindo sons felizes antes de mergulhar no profundo mar azul. A partir desse dia, Emma e o golfinho se tornaram amigos improváveis, encontrando-se na praia para brincar e nadar juntos. Seu vínculo ensinou a Emma o verdadeiro significado de bondade e compaixão.</t>
+  </si>
+  <si>
+    <t>In an old bookstore, Jack stumbled upon a dusty key hidden among the shelves. Intrigued, he decided to find out what it unlocked. After much searching, he discovered a hidden door in the back of the store. With trembling hands, he inserted the key into the lock and turned it. To his amazement, the door swung open, revealing a room filled with ancient books and treasures. Among them, he found a journal detailing the adventures of a long-lost explorer. Inspired by the tales, Jack embarked on his own journey of discovery, knowing that sometimes the greatest mysteries are found in the most unexpected places.</t>
+  </si>
+  <si>
+    <t>Em uma antiga livraria, Jack tropeçou em uma chave empoeirada escondida entre as prateleiras. Intrigado, ele decidiu descobrir o que ela abria. Depois de muita busca, ele descobriu uma porta escondida nos fundos da loja. Com mãos trêmulas, ele inseriu a chave na fechadura e girou. Para sua surpresa, a porta se abriu, revelando uma sala cheia de livros antigos e tesouros. Entre eles, ele encontrou um diário detalhando as aventuras de um explorador há muito perdido. Inspirado pelas histórias, Jack embarcou em sua própria jornada de descoberta, sabendo que às vezes os maiores mistérios são encontrados nos lugares mais inesperados.</t>
+  </si>
+  <si>
+    <t>In a bustling city park, a little sparrow named Sam watched as a cat chased a frightened mouse. Without a second thought, Sam swooped down and bravely stood between them, chirping loudly to distract the cat. Startled, the cat backed away, allowing the mouse to escape to safety. Sam's courageous act inspired other birds to join in, and together they drove the cat away. From that day on, Sam was known as the bravest sparrow in the park, a symbol of courage and kindness to all who knew him.</t>
+  </si>
+  <si>
+    <t>Em um parque movimentado da cidade, um pequeno pardal chamado Sam observou enquanto um gato perseguia um rato assustado. Sem pensar duas vezes, Sam mergulhou e corajosamente se colocou entre eles, cantando alto para distrair o gato. Assustado, o gato recuou, permitindo que o rato escapasse em segurança. O ato corajoso de Sam inspirou outros pássaros a se juntarem a ele, e juntos eles afastaram o gato. A partir desse dia, Sam foi conhecido como o pardal mais corajoso do parque, um símbolo de coragem e bondade para todos que o conheciam.</t>
+  </si>
+  <si>
+    <t>On a chilly evening, Lily found a tiny kitten mewing pitifully outside her doorstep. Seeing the shivering furball, Lily's heart melted with compassion. She scooped up the kitten and brought it inside, offering warmth and comfort. Determined to reunite the kitten with its family, Lily set out to search the neighborhood. After knocking on several doors and asking around, she finally found the kitten's worried owner. With tears of joy, the owner thanked Lily and embraced their beloved pet. Lily smiled, knowing she had made a difference in the little kitten's life.</t>
+  </si>
+  <si>
+    <t>Em uma noite fria, Lily encontrou um pequeno gatinho miando lamentavelmente do lado de fora de sua porta. Ao ver o filhote tremendo, o coração de Lily derreteu-se com compaixão. Ela pegou o gatinho e o levou para dentro, oferecendo calor e conforto. Determinada a reunir o gatinho com sua família, Lily partiu para procurar pelo bairro. Depois de bater em várias portas e perguntar por aí, ela finalmente encontrou o dono preocupado do gatinho. Com lágrimas de alegria, o dono agradeceu a Lily e abraçou seu amado animal de estimação. Lily sorriu, sabendo que tinha feito a diferença na vida do pequeno gatinho.</t>
+  </si>
+  <si>
+    <t>In the heart of the forest, there lived a colorful bird named Bella. Bella's melodious songs enchanted all who heard them, bringing joy to the woodland creatures. One day, as Bella sang her sweet tunes, a group of travelers passing through the forest stopped to listen. Captivated by her music, they invited Bella to join them on their journey. Together, they traveled far and wide, sharing Bella's songs with people across the land. Bella's music spread happiness wherever they went, reminding everyone of the beauty of nature's symphony.</t>
+  </si>
+  <si>
+    <t>No coração da floresta, vivia um pássaro colorido chamado Bella. As melodiosas canções de Bella encantavam todos que as ouviam, trazendo alegria às criaturas da floresta. Um dia, enquanto Bella cantava suas melodias doces, um grupo de viajantes passando pela floresta parou para ouvir. Cativados por sua música, eles convidaram Bella para se juntar a eles em sua jornada. Juntos, viajaram por longas distâncias, compartilhando as canções de Bella com pessoas por toda a terra. A música de Bella espalhava felicidade onde quer que fossem, lembrando a todos da beleza da sinfonia da natureza.</t>
+  </si>
+  <si>
+    <t>Deep in the hills, there stood a solitary stone known as the Kindness Stone. Legend had it that anyone who touched the stone with a kind heart would be blessed with good fortune. Many travelers sought out the stone, hoping for a bit of luck in their lives. One day, a weary traveler stumbled upon the Kindness Stone and, with a heart full of kindness, gently placed their hand upon it. To their amazement, the stone began to glow with a warm light, filling them with a sense of peace and joy. Grateful for the blessing, the traveler continued on their journey, spreading kindness wherever they went.</t>
+  </si>
+  <si>
+    <t>No alto das colinas, havia uma pedra solitária conhecida como a Pedra da Bondade. A lenda dizia que qualquer pessoa que tocasse a pedra com um coração bondoso seria abençoada com boa fortuna. Muitos viajantes buscavam a pedra, esperando um pouco de sorte em suas vidas. Um dia, um viajante cansado tropeçou na Pedra da Bondade e, com um coração cheio de bondade, gentilmente colocou a mão sobre ela. Para sua surpresa, a pedra começou a brilhar com uma luz calorosa, enchendo-os de uma sensação de paz e alegria. Grato pela bênção, o viajante continuou em sua jornada, espalhando bondade por onde passava.</t>
+  </si>
+  <si>
+    <t>Behind Emily's grandmother's old house, there was a hidden garden that few knew about. Intrigued by the stories her grandmother told, Emily decided to search for this secret garden. After days of exploring, she finally discovered a hidden gate concealed behind overgrown vines. As she stepped inside, she was greeted by a riot of colors and fragrances. Butterflies flitted from flower to flower, and birds sang sweet melodies from the branches above. Emily felt like she had stepped into a magical world all her own. From that day on, the secret garden became her sanctuary, a place where she could escape the worries of the world and let her imagination run wild.</t>
+  </si>
+  <si>
+    <t>Nos fundos da casa antiga da avó de Emily, havia um jardim escondido que poucos conheciam. Intrigada pelas histórias que sua avó contava, Emily decidiu procurar por este jardim secreto. Depois de dias de exploração, ela finalmente descobriu um portão escondido por entre as vinhas crescidas. Ao entrar, foi recebida por uma explosão de cores e fragrâncias. Borboletas voavam de flor em flor, e pássaros cantavam melodias doces dos galhos acima. Emily sentiu como se tivesse entrado em um mundo mágico só seu. A partir desse dia, o jardim secreto se tornou seu santuário, um lugar onde ela poderia escapar das preocupações do mundo e deixar sua imaginação correr solta.</t>
+  </si>
+  <si>
+    <t>In the corner of the barn, there lived a tiny mouse named Max. While other mice were content to stay hidden, Max dreamed of exploring the world beyond the barn walls. One day, when a hungry cat entered the barn, Max knew he had to act. With a determined squeak, he darted out from his hiding spot and led the cat on a wild chase through the fields. Despite his fear, Max never gave up, using his wits to outsmart the cat at every turn. Finally, exhausted but triumphant, Max returned to the barn, hailed as a hero by his fellow mice. From that day on, Max was known as the bravest mouse in the barn, a symbol of courage to all who knew him.</t>
+  </si>
+  <si>
+    <t>No canto do celeiro, vivia um pequeno rato chamado Max. Enquanto outros ratos estavam contentes em ficar escondidos, Max sonhava em explorar o mundo além das paredes do celeiro. Um dia, quando um gato faminto entrou no celeiro, Max sabia que tinha que agir. Com um guincho determinado, ele saiu de seu esconderijo e conduziu o gato em uma perseguição louca pelos campos. Apesar do medo, Max nunca desistiu, usando sua astúcia para enganar o gato em cada curva. Finalmente, exausto mas triunfante, Max voltou para o celeiro, aclamado como um herói pelos seus companheiros ratos. A partir desse dia, Max foi conhecido como o rato mais corajoso do celeiro, um símbolo de coragem para todos que o conheciam.</t>
+  </si>
+  <si>
+    <t>In an old art studio, Mia discovered a dusty paintbrush tucked away in a forgotten corner. Little did she know, this paintbrush held magical powers. As soon as she began to paint, her creations leaped off the canvas and into the real world. Excited by this newfound ability, Mia painted colorful landscapes and whimsical creatures that roamed freely around her. With each stroke of the brush, she brought joy and wonder to those who beheld her art. But Mia soon learned that magic comes with responsibility. She used her paintbrush to spread happiness and inspire others, knowing that the true magic was not in the brush itself, but in the heart of the artist.</t>
+  </si>
+  <si>
+    <t>Em um antigo estúdio de arte, Mia descobriu um pincel empoeirado escondido em um canto esquecido. Mal sabia ela, esse pincel tinha poderes mágicos. Assim que começou a pintar, suas criações pularam da tela para o mundo real. Animada por essa nova habilidade, Mia pintava paisagens coloridas e criaturas extravagantes que vagavam livremente ao seu redor. Com cada traço do pincel, ela trazia alegria e admiração para aqueles que contemplavam sua arte. Mas Mia logo aprendeu que a magia vem com responsabilidade. Ela usou seu pincel para espalhar felicidade e inspirar outros, sabendo que a verdadeira magia não estava no próprio pincel, mas no coração do artista.</t>
+  </si>
+  <si>
+    <t>In a quaint village, there lived a young boy named Alex who dreamt of exploring the world beyond. One sunny morning, he packed his knapsack with supplies and set out on an adventure. Through lush forests and winding rivers, Alex journeyed, discovering hidden caves and majestic mountains. Along the way, he encountered friendly animals and kind strangers who shared stories of their own adventures. As the sun began to set, Alex returned home, his heart full of memories and his mind brimming with dreams of future expeditions. For Alex, every day was a new adventure waiting to unfold.</t>
+  </si>
+  <si>
+    <t>Em uma vila pitoresca, vivia um menino chamado Alex que sonhava em explorar o mundo além. Uma manhã ensolarada, ele arrumou sua mochila com suprimentos e partiu em uma aventura. Através de florestas exuberantes e rios sinuosos, Alex viajou, descobrindo cavernas escondidas e montanhas majestosas. Ao longo do caminho, ele encontrou animais amigáveis e estranhos gentis que compartilharam histórias de suas próprias aventuras. Quando o sol começou a se pôr, Alex voltou para casa, seu coração cheio de memórias e sua mente transbordando de sonhos de futuras expedições. Para Alex, cada dia era uma nova aventura esperando para se desdobrar.</t>
+  </si>
+  <si>
+    <t>Deep within the woods, there lay a hidden grove untouched by time. It was said that this enchanted forest was home to magical creatures and ancient wonders. Amelia, a brave young girl, longed to explore its mysteries. Armed with only her courage and curiosity, she ventured into the depths of the forest. As she wandered among towering trees and sparkling streams, she encountered fairies dancing in the moonlight and talking animals sharing ancient wisdom. With each step, Amelia felt the forest's magic weaving its spell around her. And when she finally emerged from the depths, she carried with her not just memories, but the knowledge that some secrets are meant to be cherished forever.</t>
+  </si>
+  <si>
+    <t>No fundo da floresta, havia um bosque escondido intocado pelo tempo. Dizia-se que esta floresta encantada era lar de criaturas mágicas e maravilhas antigas. Amelia, uma jovem corajosa, ansiava explorar seus mistérios. Armada apenas com sua coragem e curiosidade, ela se aventurou nas profundezas da floresta. Enquanto vagava entre árvores imponentes e riachos cintilantes, ela encontrou fadas dançando à luz da lua e animais falantes compartilhando sabedoria antiga. Com cada passo, Amelia sentia a magia da floresta tecendo seu feitiço ao seu redor. E quando finalmente emergiu das profundezas, ela carregava não apenas memórias, mas o conhecimento de que alguns segredos são destinados a serem apreciados para sempre.</t>
+  </si>
+  <si>
+    <t>On a clear summer night, Emily and her friends decided to have a picnic under the moonlight. They gathered their blankets, baskets of food, and set off for a nearby meadow. As they lay on the soft grass, the moon cast a gentle glow over the landscape. Laughter and chatter filled the air as they enjoyed delicious snacks and shared stories. Above them, stars twinkled in the night sky, adding to the magical ambiance. Time seemed to stand still as they savored each moment together, grateful for the beauty of friendship and the tranquility of the night.</t>
+  </si>
+  <si>
+    <t>Em uma noite de verão clara, Emily e seus amigos decidiram fazer um piquenique sob a luz da lua. Eles reuniram suas mantas, cestas de comida e partiram para um campo próximo. Enquanto deitavam na grama macia, a lua lançava um brilho suave sobre a paisagem. Risadas e conversas preenchiam o ar enquanto eles desfrutavam de lanches deliciosos e compartilhavam histórias. Acima deles, as estrelas cintilavam no céu noturno, adicionando ao ambiente mágico. O tempo parecia parar enquanto eles saboreavam cada momento juntos, gratos pela beleza da amizade e pela tranquilidade da noite.</t>
+  </si>
+  <si>
+    <t>Deep in the forest, there was a hidden cave rumored to hold ancient treasures. One summer day, a group of adventurous kids stumbled upon the cave entrance and decided to explore its depths. Armed with flashlights and a sense of excitement, they ventured into the darkness. Inside, they discovered glittering crystals and sparkling gemstones embedded in the walls. But as they delved deeper, they stumbled upon a chamber filled with mysterious symbols and artifacts. Though they didn't find any treasure, the thrill of the adventure and the bond they shared made it a day they would never forget.</t>
+  </si>
+  <si>
+    <t>No fundo da floresta, havia uma caverna escondida que se dizia conter tesouros antigos. Um dia de verão, um grupo de crianças aventureiras tropeçou na entrada da caverna e decidiu explorar suas profundezas. Armados com lanternas e um sentimento de excitação, eles se aventuraram na escuridão. Dentro, eles descobriram cristais cintilantes e pedras preciosas brilhantes embutidas nas paredes. Mas ao se aprofundarem, eles tropeçaram em uma câmara cheia de símbolos e artefatos misteriosos. Embora não tenham encontrado nenhum tesouro, a emoção da aventura e o vínculo que compartilharam fizeram com que fosse um dia que jamais esqueceriam.</t>
+  </si>
+  <si>
+    <t>On a clear night, Sarah and her friends decided to camp out in the backyard. They set up their tents and lay under the open sky, marveling at the twinkling stars above. As the night grew darker, they spotted shooting stars streaking across the sky, making wishes with each one they saw. Wrapped in blankets, they shared stories and laughter, feeling the magic of the starry night enveloping them. And when they finally drifted off to sleep, they did so with hearts full of wonder and dreams of far-off galaxies.</t>
+  </si>
+  <si>
+    <t>Em uma noite clara, Sarah e seus amigos decidiram acampar no quintal. Eles montaram suas barracas e deitaram sob o céu aberto, maravilhados com as estrelas cintilantes acima. À medida que a noite ficava mais escura, eles avistavam estrelas cadentes riscando o céu, fazendo desejos com cada uma que viam. Enrolados em cobertores, eles compartilhavam histórias e risadas, sentindo a magia da noite estrelada os envolvendo. E quando finalmente adormeceram, o fizeram com o coração cheio de admiração e sonhos de galáxias distantes.</t>
+  </si>
+  <si>
+    <t>Hidden deep in the forest, there was a treehouse known only to a few adventurous kids. With its sturdy branches and rustic charm, the treehouse was a sanctuary where imaginations ran wild. Sarah and her friends spent countless hours there, playing games, telling stories, and dreaming of far-off lands. They decorated the treehouse with colorful banners and secret passwords, making it their own special hideaway. And though they grew older and their adventures took them elsewhere, the memories of their secret treehouse remained etched in their hearts forever.</t>
+  </si>
+  <si>
+    <t>Escondida no fundo da floresta, havia uma casa na árvore conhecida apenas por algumas crianças aventureiras. Com seus galhos robustos e charme rústico, a casa na árvore era um santuário onde as imaginações corriam soltas. Sarah e seus amigos passaram inúmeras horas lá, brincando, contando histórias e sonhando com terras distantes. Eles decoraram a casa na árvore com bandeiras coloridas e senhas secretas, tornando-a seu esconderijo especial. E embora crescessem e suas aventuras os levassem para outros lugares, as lembranças de sua casa na árvore secreta permaneceram gravadas em seus corações para sempre.</t>
+  </si>
+  <si>
+    <t>Em uma tarde chuvosa, o amado urso de pelúcia de Emily desapareceu. Desesperadamente, ela procurou em todos os cantos do seu quarto, mas o urso não estava em lugar nenhum. Com lágrimas nos olhos, Emily aventurou-se do lado de fora sob a chuva forte, determinada a encontrar seu amigo perdido. Enquanto vagava pelas ruas, ela avistou uma visão familiar - um urso de pelúcia encharcado deitado abandonado em um banco. Com um grito alegre, Emily correu para frente e pegou seu urso precioso. Grata e aliviada, ela abraçou seu urso com força, sabendo que alguns laços são inquebráveis, mesmo nos tempos mais tempestuosos.</t>
+  </si>
+  <si>
+    <t>One rainy afternoon, Emily's beloved teddy bear went missing. Frantically, she searched every corner of her room, but the bear was nowhere to be found. With tears in her eyes, Emily ventured outside into the downpour, determined to find her lost friend. As she wandered through the streets, she spotted a familiar sight - a soggy teddy bear lying abandoned on a bench. With a joyful cry, Emily rushed forward and scooped up her precious bear. Grateful and relieved, she hugged her teddy tightly, knowing that some bonds are unbreakable, even in the stormiest of times.</t>
+  </si>
+  <si>
+    <t>No centro da cidade, havia uma fonte que se dizia conceder desejos àqueles que jogavam moedas em suas águas. Timmy tinha ouvido histórias sobre a magia da fonte e decidiu testá-la. Com uma moeda brilhante na mão, ele fez seu desejo e a jogou nas profundezas da fonte. Dias se passaram, e o desejo de Timmy permaneceu sem ser realizado. Desanimado, ele voltou à fonte, apenas para encontrar sua moeda cintilando no fundo da piscina. Foi só quando ele voltou para casa que Timmy percebeu que seu desejo já tinha se realizado - a verdadeira amizade e felicidade o cercavam todos os dias. Às vezes, os maiores desejos são aqueles que já temos.</t>
+  </si>
+  <si>
+    <t>In the center of town, there stood a fountain rumored to grant wishes to those who tossed coins into its waters. Timmy had heard stories of the fountain's magic and decided to put it to the test. With a shiny coin in hand, he made his wish and tossed it into the fountain's depths. Days passed, and Timmy's wish remained unfulfilled. Disheartened, he returned to the fountain, only to find his coin shimmering at the bottom of the pool. It wasn't until he returned home that Timmy realized his wish had already come true - true friendship and happiness surrounded him every day. Sometimes, the greatest wishes are those we already have.</t>
+  </si>
+  <si>
+    <t>No coração da floresta, vivia um esquilo chamado Sammy, conhecido por sua curiosidade insaciável. Os dias de Sammy eram preenchidos com aventuras enquanto ele explorava cada canto da mata. Um dia, ele tropeçou em um objeto peculiar -  uma bolota brilhante com marcações misteriosas. Intrigado, Sammy embarcou em uma jornada para descobrir os segredos da bolota. Através de moitas e troncos caídos, ele viajou, seguindo pistas e resolvendo enigmas ao longo do caminho. Finalmente, ele chegou a uma clareira escondida onde árvores antigas sussurravam contos de dias passados. Lá, sob uma pedra musgosa, ele encontrou a resposta -  um mapa que levava a tesouros incontáveis. Com uma empolgação sem limites, Sammy partiu em sua próxima grande aventura, ansioso para descobrir o que havia além do horizonte.</t>
+  </si>
+  <si>
+    <t>In the heart of the forest, there lived a squirrel named Sammy, known for his insatiable curiosity. Sammy's days were filled with adventures as he explored every nook and cranny of the woodland. One day, he stumbled upon a peculiar object - a shiny acorn with mysterious markings. Intrigued, Sammy embarked on a quest to uncover the acorn's secrets. Through thickets and over fallen logs, he journeyed, following clues and solving puzzles along the way. Finally, he reached a hidden glade where ancient trees whispered tales of bygone days. There, beneath a mossy stone, he found the answer - a map leading to treasures untold. With a boundless excitement, Sammy set off on his next great adventure, eager to discover what lay beyond the horizon.</t>
+  </si>
+  <si>
+    <t>Em uma pequena cidade, havia um padeiro chamado Sr. Smith conhecido por seus deliciosos doces e coração generoso. Todas as manhãs, ele acordava antes do amanhecer para preparar pães frescos e bolos para os habitantes da cidade. Mas o Sr. Smith não parava por aí - frequentemente ele doava seus produtos assados para aqueles que precisavam, espalhando alegria e calor por toda a comunidade. Sua padaria se tornou mais do que apenas um lugar para comprar guloseimas; era um símbolo de bondade e generosidade. E embora o Sr. Smith nunca buscasse reconhecimento, seus atos altruístas tocavam os corações de todos que ele conhecia.</t>
+  </si>
+  <si>
+    <t>In a small town, there was a baker named Mr. Smith known for his delicious pastries and generous heart. Every morning, he would wake up before dawn to prepare fresh bread and cakes for the townsfolk. But Mr. Smith didn't stop there - he often donated his baked goods to those in need, spreading joy and warmth throughout the community. His bakery became more than just a place to buy treats; it was a symbol of kindness and generosity. And though Mr. Smith never sought recognition, his selfless deeds touched the hearts of everyone he met.</t>
+  </si>
+  <si>
+    <t>Depois de uma forte tempestade de chuva, Mia e seu cachorro, Max, foram dar um passeio no parque. Enquanto caminhavam pelos caminhos molhados, avistaram um belo arco-íris se curvando no céu. Animados com a visão, seguiram o caminho do arco-íris, esperando encontrar o lendário pote de ouro no final. Ao longo do caminho, encontraram patos amigáveis nadando em poças e flores coloridas desabrochando na terra encharcada de chuva. Quando chegaram ao final do arco-íris, não encontraram um pote de ouro, mas encontraram algo ainda mais precioso - uma nova apreciação pela beleza da natureza e pela alegria de explorar juntos.</t>
+  </si>
+  <si>
+    <t>After a heavy rainstorm, Mia and her dog, Max, went for a walk in the park. As they strolled along the wet pathways, they spotted a beautiful rainbow arching across the sky. Excited by the sight, they followed the rainbow's path, hoping to find the legendary pot of gold at its end. Along the way, they encountered friendly ducks swimming in puddles and colorful flowers blooming in the rain-soaked earth. When they reached the end of the rainbow, they didn't find a pot of gold, but they did find something even more precious - a newfound appreciation for the beauty of nature and the joy of exploring together.</t>
+  </si>
+  <si>
+    <t>In a quiet town, there stood an old mansion rumored to be haunted. A group of curious teenagers decided to investigate the mystery one summer afternoon. Armed with flashlights and courage, they entered the decrepit mansion, its creaky floors echoing with every step. As they explored each room, strange noises filled the air, sending shivers down their spines. But they pressed on, determined to uncover the truth. In the attic, they stumbled upon an old journal revealing the tragic story of the mansion's past. With newfound knowledge, they realized the supposed haunting was merely a misunderstood tale of lost love and betrayal. And as they left the mansion behind, they couldn't help but feel a sense of closure and peace.</t>
+  </si>
+  <si>
+    <t>Em uma cidade tranquila, havia uma antiga mansão rumores de ser assombrada. Um grupo de adolescentes curiosos decidiu investigar o mistério numa tarde de verão. Armados com lanternas e coragem, entraram na mansão decadente, cujos pisos rangiam a cada passo. Enquanto exploravam cada cômodo, estranhos ruídos enchiam o ar, enviando arrepios pela espinha. Mas eles perseveraram, determinados a descobrir a verdade. No sótão, encontraram um antigo diário revelando a trágica história do passado da mansão. Com o novo conhecimento, perceberam que a suposta assombração era apenas uma história mal compreendida de amor perdido e traição. E ao deixarem a mansão para trás, não puderam deixar de sentir uma sensação de encerramento e paz.</t>
+  </si>
+  <si>
+    <t>Deep in the forest, there was a legend of a forgotten treasure buried beneath an ancient oak tree. A pair of adventurous siblings stumbled upon an old map leading to the treasure's location. Excited by the prospect of adventure, they embarked on a journey through the dense woods, facing challenges and overcoming obstacles along the way. As they reached the oak tree marked on the map, they began to dig eagerly, their hearts pounding with anticipation. And finally, as their shovels struck something solid, they uncovered a chest filled with glittering jewels and precious artifacts. With smiles of triumph, they realized that the greatest treasure was not the riches they found, but the bond of family and the memories they made together on their quest.</t>
+  </si>
+  <si>
+    <t>No fundo da floresta, havia uma lenda de um tesouro esquecido enterrado sob uma antiga árvore de carvalho. Um par de irmãos aventureiros tropeçou em um mapa antigo que levava à localização do tesouro. Animados com a perspectiva de aventura, embarcaram em uma jornada através das densas matas, enfrentando desafios e superando obstáculos pelo caminho. Ao chegarem à árvore de carvalho marcada no mapa, começaram a cavar ansiosamente, seus corações batendo com antecipação. E finalmente, quando suas pás tocaram algo sólido, descobriram um baú cheio de jóias cintilantes e artefatos preciosos. Com sorrisos de triunfo, perceberam que o maior tesouro não eram as riquezas que encontraram, mas o vínculo familiar e as memórias que criaram juntos em sua jornada.</t>
+  </si>
+  <si>
+    <t>Off the coast of a small fishing village, there lay an island shrouded in mystery. It was said that the island was home to ancient ruins and hidden treasures, but few dared to venture there. One day, a brave young explorer named Alex decided to embark on a journey to uncover the secrets of the island. With a map in hand, he set sail across the choppy waters, guided by the stars above. As he reached the shores of the mysterious island, he was greeted by towering cliffs and dense jungle. Undeterred, Alex pressed on, hacking his way through the foliage and exploring ancient temples long forgotten by time. Along the way, he encountered strange creatures and encountered perilous traps, but his determination never wavered. And when he finally discovered the hidden chamber at the heart of the island, he realized that the greatest treasure of all was the knowledge he gained and the adventure he experienced.</t>
+  </si>
+  <si>
+    <t>Ao largo da costa de uma pequena vila de pescadores, havia uma ilha envolta em mistério. Dizia-se que a ilha era lar de ruínas antigas e tesouros escondidos, mas poucos se aventuravam a ir até lá. Um dia, um jovem explorador corajoso chamado Alex decidiu embarcar em uma jornada para descobrir os segredos da ilha. Com um mapa em mãos, ele navegou pelas águas agitadas, guiado pelas estrelas acima. Ao chegar às margens da ilha misteriosa, foi recebido por penhascos imponentes e uma densa selva. Determinado, Alex prosseguiu, abrindo caminho pela folhagem e explorando templos antigos há muito esquecidos pelo tempo. Ao longo do caminho, ele encontrou criaturas estranhas e enfrentou armadilhas perigosas, mas sua determinação nunca vacilou. E quando finalmente descobriu a câmara escondida no coração da ilha, percebeu que o maior tesouro de todos era o conhecimento que adquiriu e a aventura que viveu.</t>
+  </si>
+  <si>
+    <t>In the dusty attic of an old bookstore, Emily stumbled upon a dusty journal with faded pages and a mysterious aura. It was the journal of a time traveler, detailing their adventures through the ages. Intrigued by its contents, Emily poured over the entries, each one filled with tales of ancient civilizations, medieval kingdoms, and distant futures. As she read, she couldn't help but wonder if the stories were real or mere fantasies. Determined to find out, Emily embarked on her own journey through time, using the journal's clues to unlock the secrets of the past. Along the way, she encountered historical figures and witnessed pivotal moments in history, all while unraveling the mystery of the time traveler's journal. And when she finally returned to the present, she realized that the greatest adventure was not in the past, but in the journey itself.</t>
+  </si>
+  <si>
+    <t>No sótão empoeirado de uma velha livraria, Emily tropeçou em um diário empoeirado com páginas desbotadas e uma aura misteriosa. Era o diário de um viajante do tempo, detalhando suas aventuras através dos séculos. Intrigada pelo conteúdo, Emily mergulhou nas entradas, cada uma delas repleta de histórias de civilizações antigas, reinos medievais e futuros distantes. Enquanto lia, não pôde deixar de se perguntar se as histórias eram reais ou meras fantasias. Determinada a descobrir, Emily embarcou em sua própria jornada através do tempo, usando as pistas do diário para desvendar os segredos do passado. Ao longo do caminho, encontrou figuras históricas e testemunhou momentos decisivos na história, tudo enquanto desvendava o mistério do diário do viajante do tempo. E quando finalmente retornou ao presente, percebeu que a maior aventura não estava no passado, mas sim na jornada em si.</t>
+  </si>
+  <si>
+    <t>Nestled deep in the forest, there lay a forgotten village untouched by time. Sarah, an adventurous traveler, stumbled upon the village ruins during her exploration of the wilderness. Intrigued by its abandoned streets and crumbling buildings, she delved into the village's history, uncovering tales of its prosperous past and mysterious downfall. As she wandered through the overgrown paths and dilapidated houses, she couldn't shake the feeling of being watched. Determined to unravel the village's secrets, Sarah unearthed hidden artifacts and deciphered cryptic messages left behind by its former inhabitants. And as she pieced together the puzzle of the forgotten village, she realized that some mysteries are best left undisturbed.</t>
+  </si>
+  <si>
+    <t>Aninhada no fundo da floresta, havia uma vila esquecida intocada pelo tempo. Sarah, uma viajante aventureira, tropeçou nas ruínas da vila durante sua exploração da natureza selvagem. Intrigada pelas ruas abandonadas e pelos prédios em ruínas, ela mergulhou na história da vila, descobrindo histórias de seu passado próspero e de sua misteriosa queda. Enquanto vagava pelos caminhos cobertos de vegetação e pelas casas em ruínas, não conseguia se livrar da sensação de estar sendo observada. Determinada a desvendar os segredos da vila, Sarah desenterrou artefatos escondidos e decifrou mensagens crípticas deixadas pelos antigos habitantes. E ao juntar as peças do quebra-cabeça da vila esquecida, percebeu que alguns mistérios são melhores deixados intocados.</t>
+  </si>
+  <si>
+    <t>Deep in the countryside, there stood a dilapidated manor rumored to be haunted by restless spirits. Intrigued by the eerie tales, a group of friends decided to spend the night there to uncover the truth. As they entered the dimly lit halls, strange noises echoed around them, sending chills down their spines. Despite their fear, they pressed on, determined to unravel the mystery. As the night wore on, they encountered flickering lights, moving shadows, and ghostly apparitions. But amidst the fear, they discovered clues that hinted at a tragic past hidden within the manor's walls. And when the sun rose, they emerged from the manor with a newfound respect for the spirits that lingered within, their own spirits forever changed by the experience.</t>
+  </si>
+  <si>
+    <t>No interior do campo, havia uma mansão em ruínas rumores de ser assombrada por espíritos inquietos. Intrigados pelas histórias sinistras, um grupo de amigos decidiu passar a noite lá para descobrir a verdade. Ao entrarem nos corredores mal iluminados, estranhos ruídos ecoavam ao redor deles, enviando calafrios pela espinha. Apesar do medo, perseveraram, determinados a desvendar o mistério. Conforme a noite avançava, encontraram luzes tremeluzentes, sombras em movimento e aparições fantasmagóricas. Mas em meio ao medo, descobriram pistas que sugeriam um passado trágico escondido dentro das paredes da mansão. E quando o sol nasceu, emergiram da mansão com um novo respeito pelos espíritos que ali permaneciam, seus próprios espíritos para sempre alterados pela experiência.</t>
+  </si>
+  <si>
+    <t>Every year, the small town of Willow Creek hosted a colorful carnival filled with games, rides, and excitement. But this year, the carnival brought more than just fun—it brought a mystery that would captivate the entire town. When the prized carousel horse went missing overnight, rumors began to swirl about foul play. Determined to solve the mystery, a group of young detectives known as the Willow Creek Sleuths sprang into action. They combed through clues, interviewed suspects, and pieced together the puzzle, unraveling a web of secrets hidden beneath the bright lights and cheerful music of the carnival. And when they finally uncovered the truth behind the missing carousel horse, they realized that even in a town as small as Willow Creek, mysteries abound for those willing to seek them out.</t>
+  </si>
+  <si>
+    <t>Todos os anos, a pequena cidade de Willow Creek sediava um colorido carnaval repleto de jogos, brinquedos e excitação. Mas neste ano, o carnaval trouxe mais do que apenas diversão — trouxe um mistério que cativaria toda a cidade. Quando o valioso cavalo do carrossel desapareceu durante a noite, rumores começaram a circular sobre jogo sujo. Determinado a resolver o mistério, um grupo de jovens detetives conhecido como os Detetives de Willow Creek entrou em ação. Eles examinaram pistas, entrevistaram suspeitos e montaram o quebra-cabeça, desvendando uma teia de segredos escondidos sob as luzes brilhantes e a música alegre do carnaval. E quando finalmente descobriram a verdade por trás do cavalo do carrossel desaparecido, perceberam que mesmo em uma cidade tão pequena quanto Willow Creek, os mistérios abundam para aqueles dispostos a procurá-los.</t>
+  </si>
+  <si>
+    <t>Deep in the heart of the Amazon rainforest, there existed tales of a lost explorer who vanished without a trace. Determined to uncover the truth, a team of researchers embarked on an expedition into the dense jungle. Armed with maps and equipment, they trekked through towering trees and tangled vines, facing challenges at every turn. As they delved deeper, they stumbled upon ancient ruins and hidden artifacts, remnants of civilizations long forgotten. But their journey took a perilous turn when they encountered a series of unexpected obstacles, including dangerous wildlife and treacherous terrain. Despite the dangers, their determination never wavered, and in the end, they uncovered the fate of the lost explorer, revealing a story of bravery, sacrifice, and the enduring spirit of adventure.</t>
+  </si>
+  <si>
+    <t>No coração da floresta amazônica, existiam contos de um explorador perdido que desapareceu sem deixar rastros. Determinada a descobrir a verdade, uma equipe de pesquisadores embarcou numa expedição pela densa selva. Armados com mapas e equipamentos, eles atravessaram árvores imponentes e cipós emaranhados, enfrentando desafios a cada curva. À medida que se aprofundavam, depararam-se com ruínas antigas e artefatos escondidos, vestígios de civilizações há muito esquecidas. Mas sua jornada tomou um rumo perigoso quando encontraram uma série de obstáculos inesperados, incluindo vida selvagem perigosa e terreno traiçoeiro. Apesar dos perigos, sua determinação nunca vacilou e, no final, descobriram o destino do explorador perdido, revelando uma história de bravura, sacrifício e o espírito duradouro da aventura.</t>
+  </si>
+  <si>
+    <t>Hidden deep within the mist-shrouded mountains, there lay a lake rumored to be enchanted. Legends spoke of its magical waters, said to grant wishes to those who dared to seek them. One moonlit night, a group of friends set out to find the lake, drawn by tales of its mystical powers. As they journeyed through the rugged terrain, they encountered challenges and obstacles, testing their courage and determination. But when they finally reached the shores of the enchanted lake, they were greeted by a sight more beautiful than they could have imagined. The waters shimmered in the moonlight, reflecting the stars above like a mirror. And as they made their wishes upon the tranquil surface, they felt a sense of peace and wonder wash over them, knowing that some dreams are meant to come true.</t>
+  </si>
+  <si>
+    <t>Escondido no interior das montanhas envoltas pela névoa, havia um lago rumores de ser encantado. As lendas falavam de suas águas mágicas, dizendo-se que concediam desejos àqueles que se atreviam a buscá-las. Uma noite de lua cheia, um grupo de amigos partiu para encontrar o lago, atraídos pelas histórias de seus poderes místicos. Enquanto atravessavam o terreno acidentado, encontraram desafios e obstáculos, testando sua coragem e determinação. Mas quando finalmente alcançaram as margens do lago encantado, foram recebidos por uma visão mais bela do que poderiam ter imaginado. As águas cintilavam sob a luz da lua, refletindo as estrelas acima como um espelho. E ao fazerem seus desejos sobre a superfície tranquila, sentiram uma sensação de paz e admiração os envolver, sabendo que alguns sonhos estão destinados a se tornarem realidade.</t>
+  </si>
+  <si>
+    <t>In a quiet town, a group of school children decided to bury a time capsule to preserve memories of their childhood for future generations. Together, they gathered items that held special significance, from handwritten letters to favorite toys. With great excitement, they buried the time capsule in a secluded spot, marking the location with a map for future discovery. Years passed, and the children grew into adults, their memories of that day fading with time. But one day, a construction crew stumbled upon the time capsule, its contents a poignant reminder of the innocence and dreams of youth. As the townsfolk gathered to unearth the capsule, they were filled with nostalgia and joy, grateful for the chance to reconnect with their past and share memories with a new generation.</t>
+  </si>
+  <si>
+    <t>Numa cidade tranquila, um grupo de crianças da escola decidiu enterrar uma cápsula do tempo para preservar memórias de sua infância para as gerações futuras. Juntos, reuniram itens que tinham significado especial, desde cartas escritas à mão até brinquedos favoritos. Com grande entusiasmo, enterraram a cápsula do tempo num local isolado, marcando a localização com um mapa para descoberta futura. Anos se passaram, e as crianças cresceram e se tornaram adultos, suas memórias desse dia se desvanecendo com o tempo. Mas um dia, uma equipe de construção tropeçou na cápsula do tempo, seu conteúdo sendo um lembrete comovente da inocência e sonhos da juventude. Enquanto os moradores da cidade se reuniam para desenterrar a cápsula, eram inundados de nostalgia e alegria, gratos pela chance de se reconectar com seu passado e compartilhar memórias com uma nova geração.</t>
+  </si>
+  <si>
+    <t>Deep within the whispering woods, there lay a hidden grove where magic was said to dwell. Sarah, a young traveler with a heart full of curiosity, stumbled upon the grove during her journey through the forest. As she entered the enchanted glade, she was greeted by the gentle rustle of leaves and the soft murmur of the breeze. Intrigued by the mystical aura surrounding her, Sarah ventured deeper into the woods, following the winding paths and secret trails. Along the way, she encountered mystical creatures and ancient spirits, each one offering a glimpse into the wondrous world of magic. And when she finally emerged from the grove, she carried with her a newfound sense of wonder and a deeper connection to the natural world around her.</t>
+  </si>
+  <si>
+    <t>No coração das florestas sussurrantes, havia um bosque escondido onde se dizia que a magia habitava. Sarah, uma jovem viajante com um coração cheio de curiosidade, tropeçou no bosque durante sua jornada pela floresta. Ao entrar na clareira encantada, foi recebida pelo suave farfalhar das folhas e o murmúrio suave da brisa. Intrigada pela aura mística ao seu redor, Sarah adentrou mais profundamente na floresta, seguindo os caminhos sinuosos e trilhas secretas. Ao longo do caminho, encontrou criaturas místicas e espíritos antigos, cada um oferecendo um vislumbre do maravilhoso mundo da magia. E quando finalmente emergiu da clareira, carregava consigo um novo senso de admiração e uma conexão mais profunda com o mundo natural ao seu redor.</t>
+  </si>
+  <si>
+    <t>On the outskirts of town, there appeared a mysterious carnival that only came to life under the cover of darkness. Sarah, a curious young girl with an adventurous spirit, stumbled upon the carnival one moonlit night while exploring the deserted streets. Drawn by the distant sound of music and laughter, she followed the flickering lights to the edge of the forest, where the carnival stood in all its splendor. As she entered the enchanted world of the midnight carnival, she was greeted by a cast of colorful characters and mesmerizing attractions. From acrobats to fortune-tellers, each performer seemed to possess a touch of magic, weaving spells of wonder and excitement. And as Sarah danced beneath the starry sky, she knew that she had discovered a place where dreams came alive and the ordinary turned extraordinary.</t>
+  </si>
+  <si>
+    <t>Nos arredores da cidade, surgiu um carnaval misterioso que só ganhava vida sob o manto da escuridão. Sarah, uma jovem curiosa com espírito aventureiro, tropeçou no carnaval numa noite de lua cheia enquanto explorava as ruas desertas. Atraída pelo som distante de música e risadas, seguiu as luzes tremeluzentes até a beira da floresta, onde o carnaval estava em todo o seu esplendor. Ao entrar no mundo encantado do carnaval da meia-noite, foi recebida por um elenco de personagens coloridos e atrações hipnotizantes. De acrobatas a cartomantes, cada artista parecia possuir um toque de magia, tecendo feitiços de admiração e excitação. E enquanto Sarah dançava sob o céu estrelado, sabia que havia descoberto um lugar onde os sonhos ganhavam vida e o ordinário se tornava extraordinário.</t>
+  </si>
+  <si>
+    <t>No coração da selva amazônica, havia os vestígios de uma expedição perdida, engolida pela densa selva séculos atrás. Uma equipe de arqueólogos, liderada pelo Dr. Carter, embarcou em uma jornada para descobrir o destino dos exploradores perdidos. Atravessando a natureza selvagem implacável, enfrentaram perigos a cada curva - rios repletos de criaturas mortais, terrenos traiçoeiros e tribos hostis. Mas perseveraram, impulsionados pelo atrativo da descoberta e pela promessa de desvendar mistérios antigos. Conforme adentravam mais na selva, descobriam pistas deixadas para trás pela expedição perdida - mapas desgastados, símbolos crípticos e artefatos esquecidos. E quando finalmente alcançaram as ruínas há muito perdidas escondidas no coração da floresta tropical, perceberam que alguns segredos nunca foram destinados a serem descobertos.</t>
+  </si>
+  <si>
+    <t>In the heart of the Amazon rainforest, there lay the remnants of a lost expedition, swallowed by the dense jungle centuries ago. A team of archaeologists, led by Dr. Carter, embarked on a quest to uncover the fate of the lost explorers. Trekking through the unforgiving wilderness, they faced dangers at every turn - rivers teeming with deadly creatures, treacherous terrain, and hostile tribes. But they pressed on, driven by the allure of discovery and the promise of unraveling ancient mysteries. As they delved deeper into the jungle, they uncovered clues left behind by the lost expedition - tattered maps, cryptic symbols, and forgotten artifacts. And when they finally reached the long-lost ruins hidden deep within the rainforest, they realized that some secrets were never meant to be uncovered.</t>
+  </si>
+  <si>
+    <t>Num pequeno e pitoresco vilarejo, vivia um pintor recluso conhecido por seu talento extraordinário e maneiras misteriosas. Poucos o haviam visto, mas suas pinturas adornavam as paredes de galerias e museus ao redor do mundo. Um dia, uma jovem entusiasta de arte chamada Emma descobriu uma pintura antiga escondida no sótão de sua avó - uma pintura que se dizia ser obra do pintor elusivo. Intrigada por sua beleza e pelos segredos que guardava, Emma embarcou numa jornada para descobrir a verdade por trás do passado enigmático do pintor. Ao mergulhar mais fundo no mistério, ela descobriu pistas ocultas e histórias há muito esquecidas, cada uma revelando um pedaço do mundo escondido do pintor. E quando finalmente desvendou os segredos da pintura, percebeu que a verdadeira arte não se trata apenas do que é visto na tela, mas das histórias e emoções que evoca na alma.</t>
+  </si>
+  <si>
+    <t>In a quaint little town, there lived a reclusive painter known for his extraordinary talent and mysterious ways. Few had ever seen him, but his paintings adorned the walls of galleries and museums around the world. One day, a young art enthusiast named Emma discovered an old painting tucked away in her grandmother's attic - a painting rumored to be the work of the elusive painter. Intrigued by its beauty and the secrets it held, Emma embarked on a journey to uncover the truth behind the painter's enigmatic past. As she delved deeper into the mystery, she uncovered hidden clues and long-forgotten stories, each one revealing a piece of the painter's hidden world. And when she finally unlocked the secrets of the painting, she realized that true art is not just about what is seen on the canvas, but the stories and emotions it evokes within the soul.</t>
+  </si>
+  <si>
+    <t>Escondido atrás de um antigo muro coberto de hera, havia um jardim secreto intocado pelo tempo. Sarah, uma jovem curiosa com amor pela aventura, tropeçou no jardim numa tarde ensolarada enquanto explorava a propriedade de seu avô. Intrigada pelo mistério do jardim escondido, aventurou-se dentro, abrindo caminho por arbustos crescidos e cipós emaranhados. Ao explorar mais, descobriu um mundo de encanto e maravilha, repleto de flores vibrantes, pássaros cantantes e caminhos escondidos. A cada passo, Sarah sentia-se atraída mais profundamente pela magia do jardim, como se ele guardasse segredos esperando para serem descobertos. E quando finalmente tropeçou no coração do jardim - uma magnífica fonte cercada por rosas em flor - sabia que havia descoberto um lugar de beleza e tranquilidade como nenhum outro.</t>
+  </si>
+  <si>
+    <t>Tucked away behind an old, ivy-covered wall, there lay a secret garden untouched by time. Sarah, a curious young girl with a love for adventure, stumbled upon the garden one sunny afternoon while exploring her grandfather's estate. Intrigued by the mystery of the hidden garden, she ventured inside, pushing through overgrown bushes and tangled vines. As she explored further, she discovered a world of enchantment and wonder, filled with vibrant flowers, chirping birds, and hidden pathways. With each step, Sarah felt herself drawn deeper into the magic of the garden, as if it held secrets waiting to be uncovered. And when she finally stumbled upon the heart of the garden - a magnificent fountain surrounded by blooming roses - she knew that she had discovered a place of beauty and tranquility unlike any other.</t>
+  </si>
+  <si>
+    <t>Bem acima das movimentadas ruas da cidade, havia uma torre do relógio esquecida, suas antigas engrenagens congeladas no tempo. Lucas, um jovem curioso fascinado pela história, tropeçou na torre do relógio numa tarde chuvosa enquanto explorava os prédios abandonados da cidade. Intrigado por sua imponente presença e estado negligenciado, decidiu descobrir os segredos escondidos dentro de suas paredes. Ao subir a escada sinuosa, maravilhou-se com as entalhaduras intricadas e murais desbotados adornando o interior da torre. E quando finalmente alcançou o topo, foi recebido pela vista da cidade abaixo, estendendo-se até onde a vista alcançava. Mas em meio à vista deslumbrante, Lucas descobriu algo ainda mais notável - uma câmara escondida repleta de tesouros esquecidos e as histórias daqueles que um dia chamaram a torre do relógio de lar.</t>
+  </si>
+  <si>
+    <t>High above the bustling city streets, there stood a forgotten clocktower, its ancient gears frozen in time. Lucas, an inquisitive young boy with a fascination for history, stumbled upon the clocktower one rainy afternoon while exploring the city's abandoned buildings. Intrigued by its towering presence and neglected state, he decided to uncover the secrets hidden within its walls. As he climbed the winding staircase, he marveled at the intricate carvings and faded murals adorning the tower's interior. And when he finally reached the top, he was greeted by the sight of the city below, stretching out as far as the eye could see. But amidst the breathtaking view, Lucas discovered something even more remarkable - a hidden chamber filled with forgotten treasures and the stories of those who had once called the clocktower home.</t>
+  </si>
+  <si>
+    <t>No coração da antiga floresta, havia um guardião que diziam proteger a terra de qualquer mal. Mia, uma jovem aventureira cheia de espírito e amor pela natureza, tropeçou no domínio do guardião numa manhã nebulosa enquanto explorava a floresta. Ao adentrar mais profundamente na floresta, sentiu uma sensação de reverência e admiração a envolver, como se as próprias árvores estivessem vivas com magia. E quando finalmente encontrou o guardião - um majestoso veado com chifres adornados com hera e musgo - soube que estava diante de algo verdadeiramente extraordinário. Com um olhar gentil, o guardião acolheu Mia no coração da floresta, onde ela descobriu um mundo de maravilha e encanto como nenhum outro que já conhecera.</t>
+  </si>
+  <si>
+    <t>Deep within the heart of the ancient forest, there dwelled a guardian rumored to protect the land from harm. Mia, a spirited young adventurer with a love for nature, stumbled upon the guardian's domain one misty morning while exploring the woods. As she ventured deeper into the forest, she felt a sense of reverence and awe wash over her, as if the very trees themselves were alive with magic. And when she finally encountered the guardian - a majestic stag with antlers adorned with ivy and moss - she knew that she stood in the presence of something truly extraordinary. With a gentle gaze, the guardian welcomed Mia into the heart of the forest, where she discovered a world of wonder and enchantment unlike any she had ever known.</t>
+  </si>
+  <si>
+    <t>Perched atop a lonely hill, surrounded by mist and shadows, stood the haunted manor, its crumbling walls whispering tales of long-forgotten secrets. Amelia, a brave young explorer with a thirst for adventure, dared to venture into the depths of the forsaken mansion one moonless night. As she crossed the threshold, a chill ran down her spine, and the air grew thick with the scent of decay. Undeterred, she pressed on, her footsteps echoing through the empty halls as she searched for clues to unravel the mysteries that lay hidden within. But as the clock struck midnight, the manor came alive with ghostly apparitions and eerie sounds, testing Amelia's courage like never before. And when she finally emerged from the depths of the haunted manor, she carried with her not only the secrets of its past but also the realization that sometimes the greatest adventures come with the greatest risks.</t>
+  </si>
+  <si>
+    <t>Erguida no topo de uma colina solitária, cercada por névoa e sombras, estava a mansão assombrada, suas paredes desmoronadas sussurrando contos de segredos há muito esquecidos. Amelia, uma jovem exploradora corajosa com sede de aventura, ousou adentrar nas profundezas da mansão abandonada numa noite sem lua. Ao atravessar o limiar, um arrepio percorreu sua espinha, e o ar tornou-se denso com o cheiro de decomposição. Determinada, ela prosseguiu, seus passos ecoando pelos corredores vazios enquanto procurava pistas para desvendar os mistérios que jaziam ocultos ali. Mas quando o relógio bateu meia-noite, a mansão ganhou vida com aparições fantasmas e sons arrepiantes, testando a coragem de Amelia como nunca antes. E quando finalmente emergiu das profundezas da mansão assombrada, ela carregava consigo não apenas os segredos de seu passado, mas também a realização de que às vezes as maiores aventuras vêm com os maiores riscos.</t>
+  </si>
+  <si>
+    <t>In the dead of night, beneath a blanket of stars, there wandered an astral explorer, his spirit untethered from the constraints of the physical world. Ethan, a young dreamer with an insatiable curiosity, discovered the secrets of astral projection and embarked on a journey through the vast expanse of the cosmos. With each ethereal step, he traversed distant galaxies and explored alien worlds, guided only by the light of his own inner compass. Along the way, he encountered celestial beings and unlocked the mysteries of the universe, gaining wisdom beyond his years. And when he finally returned to his earthly body, he carried with him not only the memories of his astral adventures but also a newfound understanding of the interconnectedness of all things.</t>
+  </si>
+  <si>
+    <t>No silêncio da noite, sob um manto de estrelas, vagava um explorador astral, seu espírito desvinculado das amarras do mundo físico. Ethan, um jovem sonhador com uma curiosidade insaciável, descobriu os segredos da projeção astral e embarcou numa jornada pela vasta expansão do cosmos. A cada passo etéreo, atravessava galáxias distantes e explorava mundos alienígenas, guiado apenas pela luz de sua própria bússola interior. Ao longo do caminho, encontrou seres celestiais e desvendou os mistérios do universo, ganhando sabedoria além de seus anos. E quando finalmente retornou ao seu corpo terreno, carregava consigo não apenas as memórias de suas aventuras astrais, mas também um entendimento recém-descoberto da interconexão de todas as coisas.</t>
+  </si>
+  <si>
+    <t>In a forgotten corner of the world, there stood an ancient clocktower, its mechanisms a testament to the passage of time. Legends whispered of a timekeeper who once dwelled within its walls, guarding the flow of time itself. Lily, a determined young historian, embarked on a quest to uncover the truth behind the clocktower's mysteries. As she delved into dusty archives and deciphered cryptic inscriptions, she pieced together the story of the timekeeper and his sacred duty. Guided by her passion for unraveling history's secrets, Lily ventured into the heart of the clocktower, where she discovered the timekeeper's hidden chamber. And as she gazed upon the intricate gears and mechanisms, she realized that the true legacy of the timekeeper was not just the ticking of the clock, but the memories and stories preserved within its walls for eternity.</t>
+  </si>
+  <si>
+    <t>Em um canto esquecido do mundo, havia uma antiga torre do relógio, seus mecanismos um testemunho da passagem do tempo. As lendas sussurravam sobre um guardião do tempo que uma vez habitou suas paredes, protegendo o fluxo do tempo em si. Lily, uma historiadora determinada, embarcou numa jornada para descobrir a verdade por trás dos mistérios da torre do relógio. Ao vasculhar arquivos empoeirados e decifrar inscrições crípticas, ela juntou as peças da história do guardião do tempo e seu sagrado dever. Guiada por sua paixão por desvendar os segredos da história, Lily aventurou-se no coração da torre do relógio, onde descobriu a câmara secreta do guardião do tempo. E enquanto contemplava as engrenagens e mecanismos intricados, ela percebeu que o verdadeiro legado do guardião do tempo não era apenas o tic-tac do relógio, mas as memórias e histórias preservadas dentro de suas paredes para a eternidade.</t>
+  </si>
+  <si>
+    <t>Hidden within the heart of an ancient forest, there lay an enchanted library, its shelves filled with books of magic and wonder. Sarah, a young bibliophile with an insatiable thirst for knowledge, stumbled upon the library one misty morning while exploring the woods. As she stepped through the threshold, she was enveloped in a warm glow, and the whispers of ancient tomes filled her ears. Intrigued by the secrets held within the pages, Sarah spent hours lost in the enchanting world of the library, delving into realms beyond imagination. And when she finally emerged from the depths of the library, she carried with her not only the wisdom of the ages but also a newfound appreciation for the power of stories to transport us to magical realms.</t>
+  </si>
+  <si>
+    <t>Escondida no coração de uma antiga floresta, havia uma biblioteca encantada, suas prateleiras repletas de livros de magia e maravilha. Sarah, uma jovem bibliófila com uma sede insaciável por conhecimento, tropeçou na biblioteca numa manhã nebulosa enquanto explorava a floresta. Ao atravessar o limiar, foi envolvida por um brilho cálido, e os sussurros de tomos antigos encheram seus ouvidos. Intrigada pelos segredos contidos nas páginas, Sarah passou horas perdida no mundo encantador da biblioteca, adentrando reinos além da imaginação. E quando finalmente emergiu das profundezas da biblioteca, carregava consigo não apenas a sabedoria dos tempos, mas também uma apreciação recém-descoberta pelo poder das histórias para nos transportar a reinos mágicos.</t>
+  </si>
+  <si>
+    <t>Deep within the heart of an ancient forest, there convened the elemental conclave, a gathering of beings attuned to the forces of nature. Ava, a young druid with a connection to the elements, journeyed to the conclave to seek wisdom and guidance. As she entered the sacred grove, she was greeted by the sight of elementals dancing among the trees, their forms shimmering with elemental energy. Drawn by the call of the wild, Ava joined the conclave, learning from the ancient spirits and forging bonds with the elements themselves. And when she finally emerged from the conclave, she carried with her not only the knowledge of the ancients but also a deeper understanding of her place in the natural world.</t>
+  </si>
+  <si>
+    <t>No coração de uma antiga floresta, havia o conclave elemental, uma reunião de seres sintonizados com as forças da natureza. Ava, uma jovem druida com conexão aos elementos, jornadeou até o conclave em busca de sabedoria e orientação. Ao adentrar a clareira sagrada, foi saudada pela visão de elementais dançando entre as árvores, suas formas cintilando com energia elemental. Atraída pelo chamado da selva, Ava juntou-se ao conclave, aprendendo com os espíritos antigos e forjando laços com os próprios elementos. E quando finalmente emergiu do conclave, carregava consigo não apenas o conhecimento dos antigos, mas também um entendimento mais profundo de seu lugar no mundo natural.</t>
+  </si>
+  <si>
+    <t>In the heart of a blazing inferno, there arose a magnificent phoenix, its feathers ablaze with vibrant hues of orange and gold. Maya, a courageous young adventurer with a heart of fire, witnessed the phoenix's flight one scorching afternoon while journeying through the desert. Mesmerized by the bird's majestic beauty, she followed its soaring path across the sky, feeling the heat of its flames and the power of its presence. Inspired by the phoenix's resilience and strength, Maya embarked on a quest to discover the secrets of its rebirth and renewal. And when she finally stood in the presence of the phoenix, she understood that true strength comes not from avoiding the flames, but from rising from the ashes, reborn and renewed.</t>
+  </si>
+  <si>
+    <t>No coração de um inferno ardente, surgiu uma magnífica fênix, suas penas em chamas com matizes vibrantes de laranja e ouro. Maya, uma corajosa jovem aventureira com um coração de fogo, testemunhou o voo da fênix numa tarde escaldante enquanto viajava pelo deserto. Hipnotizada pela majestosa beleza do pássaro, seguiu seu caminho planante pelo céu, sentindo o calor de suas chamas e o poder de sua presença. Inspirada pela resiliência e força da fênix, Maya embarcou numa jornada para descobrir os segredos de seu renascimento e renovação. E quando finalmente estava diante da fênix, entendeu que a verdadeira força não vem de evitar as chamas, mas de renascer das cinzas, reavivada e renovada.</t>
+  </si>
+  <si>
+    <t>Deep within the mist-shrouded forest, there stood the guardian of the forgotten realm, its towering form cloaked in shadows. Finn, a valiant young warrior with a noble heart, encountered the guardian one fateful night while on a quest to uncover the lost secrets of the ancient forest. As he faced the guardian in battle, he sensed the weight of centuries of solitude and duty upon its shoulders. Moved by compassion and respect, Finn sought to understand the guardian's purpose and the secrets it protected. And when he finally gained the guardian's trust, he was granted access to the realm beyond, where he discovered the hidden wonders and untold stories of the forgotten forest.</t>
+  </si>
+  <si>
+    <t>No coração da floresta envolta pela névoa, estava o guardião do reino esquecido, sua imponente forma envolta em sombras. Finn, um valente jovem guerreiro com um coração nobre, encontrou o guardião numa noite fatídica enquanto estava numa missão para descobrir os segredos perdidos da antiga floresta. Enquanto enfrentava o guardião em batalha, sentiu o peso de séculos de solidão e dever sobre seus ombros. Movido por compaixão e respeito, Finn buscou entender o propósito do guardião e os segredos que protegia. E quando finalmente ganhou a confiança do guardião, recebeu acesso ao reino além, onde descobriu as maravilhas escondidas e as histórias não contadas da floresta esquecida.</t>
+  </si>
+  <si>
+    <t>Amidst the snow-capped peaks of the mountain range, there stood the majestic Crystal Palace, its spires glistening in the sunlight like diamonds. Elena, a skilled mountaineer with a sense of adventure, stumbled upon the palace one winter morning while exploring the remote wilderness. As she approached the shimmering structure, she marveled at its beauty, each facet of crystal reflecting the colors of the surrounding landscape. Intrigued by the mystery of the palace, Elena ventured inside, where she discovered halls adorned with intricate ice sculptures and chambers filled with sparkling treasures. Guided by her curiosity, she explored every corner of the palace, uncovering its secrets and unlocking its hidden magic. And when she finally emerged from the palace, she carried with her not only memories of its splendor but also a newfound appreciation for the wonders of the natural world.</t>
+  </si>
+  <si>
+    <t>Em meio às picos cobertos de neve da cordilheira, erguia-se o majestoso Palácio de Cristal, suas torres reluzindo ao sol como diamantes. Elena, uma montanhista habilidosa com um espírito aventureiro, tropeçou no palácio numa manhã de inverno enquanto explorava a natureza selvagem remota. Ao se aproximar da estrutura cintilante, maravilhou-se com sua beleza, cada faceta de cristal refletindo as cores da paisagem ao redor. Intrigada pelo mistério do palácio, Elena aventurou-se dentro, onde descobriu salões adornados com esculturas de gelo intricadas e câmaras repletas de tesouros cintilantes. Guiada pela sua curiosidade, explorou cada canto do palácio, desvendando seus segredos e desbloqueando sua magia oculta. E quando finalmente emergiu do palácio, carregava consigo não apenas memórias do seu esplendor, mas também uma apreciação recém-descoberta pelas maravilhas do mundo natural.</t>
+  </si>
+  <si>
+    <t>Along the rugged coastline, where the waves crashed against the cliffs, there echoed the haunting melody of the sirens, their voices luring sailors to their doom. Lucas, a daring young sailor with a love for adventure, encountered the sirens' song one stormy night while navigating the treacherous waters. Drawn by the enchanting music, he followed its ethereal melody, unaware of the danger that lay ahead. As he approached the rocky shore, he saw the sirens perched upon the cliffs, their voices weaving a spellbinding song that echoed in his mind. But as he gazed into their eyes, he felt a surge of clarity and strength, breaking free from the sirens' spell and guiding his ship to safety. And when he finally sailed away from the perilous shores, he carried with him not only the memory of the sirens' song but also a newfound resilience forged in the face of danger.</t>
+  </si>
+  <si>
+    <t>Ao longo da costa acidentada, onde as ondas batiam contra os penhascos, ecoava a melodia assombrosa das sereias, suas vozes atraindo os marinheiros para a perdição. Lucas, um jovem marinheiro destemido com amor pela aventura, encontrou a canção das sereias numa noite tempestuosa enquanto navegava pelas águas traiçoeiras. Atraído pela música encantadora, seguiu sua melodia etérea, sem saber do perigo que o aguardava. Ao se aproximar da costa rochosa, viu as sereias empoleiradas nos penhascos, suas vozes tecendo uma canção hipnotizante que ecoava em sua mente. Mas ao fitar seus olhos, sentiu uma onda de clareza e força, libertando-se do feitiço das sereias e guiando seu navio para a segurança. E quando finalmente navegou para longe das costas perigosas, carregava consigo não apenas a memória da canção das sereias, mas também uma nova resiliência forjada diante do perigo.</t>
+  </si>
+  <si>
+    <t>In the depths of space, where the stars danced in endless spirals, there shimmered the Astral Gateway, a portal to realms beyond imagination. Aiden, a young astronomer with a thirst for discovery, stumbled upon the gateway one clear night while observing the cosmos. As he gazed upon its ethereal beauty, he felt a pull from deep within, drawing him towards the gateway's shimmering embrace. With trepidation and excitement, he stepped through the portal, feeling the fabric of reality shift and warp around him. In the realms beyond, he encountered beings of light and energy, each one a guardian of the astral realms. And when he finally returned to his own world, he carried with him not only the memories of his astral journey but also a deeper understanding of the interconnectedness of the universe.</t>
+  </si>
+  <si>
+    <t>Nas profundezas do espaço, onde as estrelas dançavam em espirais intermináveis, cintilava o Portal Astral, um portal para reinos além da imaginação. Aiden, um jovem astrônomo com sede de descoberta, tropeçou no portal numa noite clara enquanto observava o cosmos. Ao contemplar sua beleza etérea, sentiu um chamado vindo de dentro, atraindo-o para o abraço cintilante do portal. Com apreensão e excitação, atravessou o portal, sentindo o tecido da realidade se deslocar e distorcer ao seu redor. Nos reinos além, encontrou seres de luz e energia, cada um sendo um guardião dos reinos astrais. E quando finalmente retornou ao seu próprio mundo, carregava consigo não apenas as memórias de sua jornada astral, mas também uma compreensão mais profunda da interconexão do universo.</t>
+  </si>
+  <si>
+    <t>Tucked away in a hidden corner of the countryside, there bloomed the enchanted garden, a sanctuary of beauty and magic. Lily, a young botanist with a love for plants, stumbled upon the garden one sunny afternoon while wandering through the woods. As she stepped through the wrought iron gate, she was greeted by a riot of colors and scents, each flower and tree radiating its own unique charm. Mesmerized by the beauty surrounding her, Lily explored the garden's winding paths and secret alcoves, discovering hidden springs and ancient ruins along the way. And when she finally sat amidst the blooms, she felt a sense of peace and wonder wash over her, knowing that she had found a place where magic truly thrived.</t>
+  </si>
+  <si>
+    <t>Escondido num canto isolado do campo, florescia o jardim encantado, um santuário de beleza e magia. Lily, uma jovem botânica apaixonada por plantas, tropeçou no jardim numa tarde ensolarada enquanto vagava pela floresta. Ao atravessar o portão de ferro forjado, foi recebida por uma explosão de cores e aromas, cada flor e árvore irradiando seu próprio encanto único. Hipnotizada pela beleza ao seu redor, Lily explorou os caminhos sinuosos e recantos secretos do jardim, descobrindo fontes escondidas e ruínas antigas pelo caminho. E quando finalmente se sentou em meio às flores, sentiu uma sensação de paz e admiração inundá-la, sabendo que havia encontrado um lugar onde a magia realmente prosperava.</t>
+  </si>
+  <si>
+    <t>Hidden deep within the jungle, veiled by ancient vines and crumbling stone, there lay the forbidden temple, a relic of a long-forgotten civilization. Sofia, an intrepid young archaeologist with a thirst for discovery, stumbled upon the temple one sweltering afternoon while trekking through the dense foliage. As she ventured into its shadowy depths, she felt the weight of history pressing down upon her, each step revealing secrets long buried beneath the earth. Undeterred by the warnings of danger, Sofia pressed on, determined to unlock the mysteries of the temple and uncover its hidden treasures. And when she finally emerged from its hallowed halls, she carried with her not only artifacts of the past but also a newfound reverence for the ancient civilizations that once thrived amidst the jungle's embrace.</t>
+  </si>
+  <si>
+    <t>Escondido no interior da selva, velado por videiras antigas e pedra desmoronada, jazia o templo proibido, uma relíquia de uma civilização há muito esquecida. Sofia, uma jovem arqueóloga intrépida com sede de descoberta, tropeçou no templo numa tarde escaldante enquanto percorria a densa folhagem. Ao adentrar suas profundezas sombrias, sentiu o peso da história pressionando sobre ela, cada passo revelando segredos há muito enterrados sob a terra. Inabalável pelas advertências de perigo, Sofia prosseguiu determinada a desvendar os mistérios do templo e descobrir seus tesouros escondidos. E quando finalmente emergiu de seus sagrados salões, carregava consigo não apenas artefatos do passado, mas também uma nova reverência pelas civilizações antigas que outrora prosperaram no abraço da selva.</t>
+  </si>
+  <si>
+    <t>Beneath the silvery glow of the moon, there unfolded the Moonlit Masquerade, a gathering of masked revelers in a hidden garden. Ava, a spirited young artist with a love for mystery, stumbled upon the masquerade one enchanted evening while wandering through the moonlit streets. As she entered the garden adorned with twinkling lights and blooming flowers, she was swept away by the magic of the night. Amidst the masked dancers and swirling melodies, Ava felt a sense of liberation, free to be whoever she wished behind her mask. And when dawn broke and the masquerade came to an end, she left with memories of a night filled with enchantment and the promise of hidden identities.</t>
+  </si>
+  <si>
+    <t>Sob o brilho prateado da lua, desdobrou-se o Baile Sob a Luz do Luar, um encontro de mascarados em um jardim escondido. Ava, uma jovem artista espirituosa com amor pelo mistério, tropeçou no baile numa noite encantada enquanto vagava pelas ruas iluminadas pela lua. Ao entrar no jardim adornado com luzes cintilantes e flores em flor, foi levada pela magia da noite. No meio dos dançarinos mascarados e das melodias envolventes, Ava sentiu um senso de liberação, livre para ser quem quisesse atrás de sua máscara. E quando o amanhecer chegou e o baile chegou ao fim, ela partiu com memórias de uma noite cheia de encanto e a promessa de identidades ocultas.</t>
+  </si>
+  <si>
+    <t>In the icy wilderness of the far north, there stood the Guardian of the Northern Lights, a majestic polar bear with fur that shimmered like the aurora borealis. Finn, a brave young explorer with a heart of ice, encountered the guardian one frosty night while trekking through the snow-covered tundra. As he gazed into the bear's wise eyes, he felt a sense of connection to the magical energies that danced in the sky above. Determined to learn the secrets of the northern lights, Finn embarked on a quest to understand their mysteries and protect their beauty for generations to come. And when he finally witnessed the aurora's dazzling display, he knew that he had been chosen as the guardian's apprentice, entrusted with the task of preserving the splendor of the northern lights for all eternity.</t>
+  </si>
+  <si>
+    <t>Na gélida selvageria do extremo norte, erguia-se o Guardião das Luzes do Norte, um majestoso urso polar com pelagem que brilhava como a aurora boreal. Finn, um jovem explorador corajoso com um coração de gelo, encontrou o guardião numa noite gelada enquanto percorria a tundra coberta de neve. Ao fitar os sábios olhos do urso, sentiu uma conexão com as energias mágicas que dançavam no céu acima. Determinado a aprender os segredos das luzes do norte, Finn embarcou numa jornada para entender seus mistérios e proteger sua beleza para as gerações futuras. E quando finalmente testemunhou o deslumbrante espetáculo da aurora, soube que fora escolhido como aprendiz do guardião, confiado com a tarefa de preservar o esplendor das luzes do norte para toda a eternidade.</t>
+  </si>
+  <si>
+    <t>Perched on a rocky cliff overlooking the stormy sea, there stood the Lost Lighthouse, its beacon long extinguished and its secrets shrouded in mist. Elena, a determined young sailor with a thirst for adventure, stumbled upon the lighthouse one foggy morning while navigating the treacherous waters. Intrigued by the mystery of the abandoned structure, she ventured inside, where she discovered forgotten logbooks and cryptic maps hinting at hidden treasures. Guided by her intuition and a longing for discovery, Elena embarked on a quest to uncover the truth behind the lighthouse's disappearance and restore its guiding light to the sailors lost at sea. And when she finally succeeded, the Lost Lighthouse once again shone brightly, a beacon of hope amidst the swirling mists.</t>
+  </si>
+  <si>
+    <t>Empoleirado num penhasco rochoso com vista para o mar tempestuoso, erguia-se o Farol Perdido, seu farol há muito extinto e seus segredos envoltos em névoa. Elena, uma jovem marinheira determinada com sede de aventura, tropeçou no farol numa manhã nebulosa enquanto navegava pelas águas traiçoeiras. Intrigada pelo mistério da estrutura abandonada, aventurou-se dentro, onde descobriu livros de registro esquecidos e mapas crípticos insinuando tesouros escondidos. Guiada por sua intuição e anseio por descoberta, Elena embarcou numa jornada para desvendar a verdade por trás do desaparecimento do farol e restaurar sua luz guia aos marinheiros perdidos no mar. E quando finalmente teve sucesso, o Farol Perdido brilhou novamente, um farol de esperança no meio das névoas rodopiantes.</t>
+  </si>
+  <si>
+    <t>Amidst the bustling cityscape, there rose the Timekeeper's Tower, a towering structure adorned with intricate clockwork mechanisms. Lucas, a young clockmaker with a passion for precision, stumbled upon the tower one evening while wandering through the cobblestone streets. As he entered the tower's grand atrium, he marveled at the array of gears and pendulums, each one meticulously crafted to keep time flowing smoothly. Intrigued by the mysteries of timekeeping, Lucas apprenticed himself to the tower's keeper, learning the ancient art of horology and unraveling the secrets of time itself. And when he finally mastered the craft, he became the new guardian of the Timekeeper's Tower, entrusted with the solemn duty of ensuring that time marched on for generations to come.</t>
+  </si>
+  <si>
+    <t>Em meio à paisagem urbana movimentada, erguia-se a Torre do Guardião do Tempo, uma estrutura imponente adornada com intrincados mecanismos de relojoaria. Lucas, um jovem relojoeiro com paixão pela precisão, tropeçou na torre numa noite enquanto vagava pelas ruas de paralelepípedos. Ao adentrar o grandioso átrio da torre, maravilhou-se com a variedade de engrenagens e pêndulos, cada um meticulosamente trabalhado para manter o tempo fluindo suavemente. Intrigado pelos mistérios da medição do tempo, Lucas tornou-se aprendiz do guardião da torre, aprendendo a antiga arte da horologia e desvendando os segredos do próprio tempo. E quando finalmente dominou o ofício, tornou-se o novo guardião da Torre do Guardião do Tempo, incumbido do solene dever de garantir que o tempo continuasse a avançar para as gerações futuras.</t>
+  </si>
+  <si>
+    <t>Deep within the heart of the Whispering Woods, there lay a hidden glade where the trees whispered secrets to those who would listen. Emma, a young bard with a keen ear for stories, stumbled upon the glade one misty morning while wandering through the ancient forest. As she sat beneath the canopy of leaves, she heard the gentle murmur of the trees, each one sharing tales of times long past and mysteries yet to unfold. Enchanted by the voices of the woods, Emma spent days exploring the glade, weaving the stories she heard into songs that echoed through the forest. And when she finally left the Whispering Woods, she carried with her not only memories of its magic but also a collection of stories that would captivate listeners for generations to come.</t>
+  </si>
+  <si>
+    <t>No coração da Floresta Sussurrante, jazia uma clareira escondida onde as árvores sussurravam segredos para aqueles que quisessem ouvir. Emma, uma jovem barda com ouvido apurado para histórias, tropeçou na clareira numa manhã nebulosa enquanto vagava pela antiga floresta. Ao se sentar sob o dossel das folhas, ouviu o murmúrio suave das árvores, cada uma compartilhando contos de tempos passados e mistérios ainda por desvendar. Encantada pelas vozes da floresta, Emma passou dias explorando a clareira, tecendo as histórias que ouviu em canções que ecoavam pela floresta. E quando finalmente deixou a Floresta Sussurrante, carregava consigo não apenas memórias de sua magia, mas também uma coleção de histórias que cativariam ouvintes por gerações.</t>
+  </si>
+  <si>
+    <t>High above the world, where the stars danced in the vast expanse of space, there resounded the Celestial Symphony, a harmonious melody composed by the celestial bodies themselves. Ava, a young astronomer with an insatiable curiosity, stumbled upon the symphony one clear night while gazing at the twinkling stars from her rooftop observatory. As she listened to the ethereal music, she felt a profound sense of connection to the universe, as if each note carried the secrets of the cosmos. Inspired by the celestial harmony, Ava dedicated herself to studying the patterns of the stars, seeking to unravel the mysteries of the universe and the music that echoed through its infinite expanse. And when she finally understood the symphony's celestial composition, she realized that she was not merely an observer but a participant in the cosmic dance of creation.</t>
+  </si>
+  <si>
+    <t>Nos altos céus, onde as estrelas dançavam na vasta extensão do espaço, ecoava a Sinfonia Celestial, uma melodia harmoniosa composta pelos corpos celestes. Ava, uma jovem astrônoma com uma curiosidade insaciável, tropeçou na sinfonia numa noite clara enquanto contemplava as estrelas cintilantes do observatório em seu telhado. Ao ouvir a música etérea, sentiu uma profunda conexão com o universo, como se cada nota carregasse os segredos do cosmos. Inspirada pela harmonia celestial, Ava dedicou-se ao estudo dos padrões das estrelas, buscando desvendar os mistérios do universo e a música que ecoava através de sua extensão infinita. E quando finalmente entendeu a composição celestial da sinfonia, percebeu que não era apenas uma observadora, mas uma participante na dança cósmica da criação.</t>
+  </si>
+  <si>
+    <t>Hidden within the labyrinthine corridors of an ancient castle, there lay the Forgotten Library, its shelves laden with dusty tomes and forgotten knowledge. Ethan, a young scholar with a thirst for wisdom, stumbled upon the library one stormy night while seeking refuge from the tempest outside. As he perused the ancient texts and crumbling manuscripts, he felt a sense of awe and reverence for the accumulated knowledge of generations past. Determined to uncover the secrets hidden within the library's walls, Ethan delved into its depths, unlocking the mysteries of forgotten civilizations and lost arts. And when he finally emerged from the library's confines, he carried with him not only the wisdom of the ages but also a newfound appreciation for the power of knowledge to transcend time itself.</t>
+  </si>
+  <si>
+    <t>Escondida nos corredores labirínticos de um castelo antigo, jazia a Biblioteca Esquecida, suas prateleiras carregadas com tomos empoeirados e conhecimento esquecido. Ethan, um jovem estudioso com sede de sabedoria, tropeçou na biblioteca numa noite tempestuosa enquanto buscava refúgio da tempestade lá fora. Ao examinar os textos antigos e manuscritos em ruínas, sentiu uma sensação de admiração e reverência pelo conhecimento acumulado de gerações passadas. Determinado a desvendar os segredos escondidos dentro das paredes da biblioteca, Ethan adentrou em suas profundezas, desvendando os mistérios de civilizações esquecidas e artes perdidas. E quando finalmente emergiu dos confins da biblioteca, carregava consigo não apenas a sabedoria das eras, mas também uma nova apreciação pelo poder do conhecimento para transcender o próprio tempo.</t>
+  </si>
+  <si>
+    <t>Concealed behind a hidden door in an ancient castle, there lay the Secret Library, a repository of knowledge lost to time. Thomas, a young scholar with an insatiable curiosity, stumbled upon the library one stormy afternoon while exploring the abandoned castle. As he pried open the door, he was greeted by shelves lined with dusty tomes and manuscripts, each one holding secrets waiting to be uncovered. Entranced by the wealth of knowledge within, Thomas delved into the library's depths, deciphering ancient texts and unlocking the wisdom of ages past. And when he finally emerged from the library, he carried with him not only books filled with forgotten lore but also a newfound appreciation for the power of knowledge.</t>
+  </si>
+  <si>
+    <t>Escondida atrás de uma porta secreta em um castelo antigo, jazia a Biblioteca Secreta, um repositório de conhecimento perdido no tempo. Thomas, um jovem estudioso com uma curiosidade insaciável, tropeçou na biblioteca numa tarde tempestuosa enquanto explorava o castelo abandonado. Ao abrir a porta, foi recebido por prateleiras alinhadas com tomos empoeirados e manuscritos, cada um guardando segredos esperando para serem descobertos. Enfeitiçado pela riqueza de conhecimento dentro dela, Thomas adentrou nas profundezas da biblioteca, decifrando textos antigos e desvendando a sabedoria de eras passadas. E quando finalmente emergiu da biblioteca, carregava consigo não apenas livros repletos de sabedoria esquecida, mas também uma nova apreciação pelo poder do conhecimento.</t>
+  </si>
+  <si>
+    <t>Deep within the shadowy confines of an ancient laboratory, there resided the Forgotten Alchemist, a master of secrets and transmutation. Daniel, a curious apprentice with a hunger for knowledge, stumbled upon the alchemist's hidden chamber one moonlit night while exploring the forgotten halls. As he sifted through dusty tomes and vials of mysterious substances, he uncovered the alchemist's lost experiments and unfinished works. Intrigued by the alchemist's legacy, Daniel embarked on a quest to unlock the secrets of transmutation and discover the elusive philosopher's stone. And when he finally succeeded, he realized that true alchemy lay not in the transformation of base metals into gold, but in the journey of self-discovery and enlightenment.</t>
+  </si>
+  <si>
+    <t>Profundamente dentro dos confins sombrios de um laboratório antigo, residia o Alquimista Esquecido, um mestre de segredos e transmutação. Daniel, um aprendiz curioso com fome de conhecimento, tropeçou na câmara oculta do alquimista numa noite iluminada pela lua enquanto explorava os corredores esquecidos. Ao vasculhar tomos empoeirados e frascos de substâncias misteriosas, descobriu os experimentos perdidos e trabalhos inacabados do alquimista. Intrigado pelo legado do alquimista, Daniel embarcou numa jornada para desvendar os segredos da transmutação e descobrir a elusiva pedra filosofal. E quando finalmente teve sucesso, percebeu que a verdadeira alquimia não estava na transformação de metais básicos em ouro, mas na jornada de autoconhecimento e iluminação.</t>
+  </si>
+  <si>
+    <t>Within the depths of an ancient tomb, there lay the Enigmatic Artifacts, relics of a bygone era waiting to be discovered. Sofia, a daring archaeologist with a thirst for adventure, stumbled upon the tomb one fateful afternoon while excavating the desert sands. As she brushed away centuries of dust and sand, she unearthed artifacts adorned with cryptic symbols and intricate carvings. Intrigued by the mysteries of the past, Sofia delved deeper into the tomb, piecing together clues and unraveling the secrets of the ancient civilization. And when she finally emerged from the depths, she carried with her not only treasures of untold value but also a newfound understanding of the enigmatic artifacts that had lain hidden for centuries.</t>
+  </si>
+  <si>
+    <t>Nas profundezas de uma tumba antiga, jaziam os Artefatos Enigmáticos, relíquias de uma era passada esperando para serem descobertas. Sofia, uma arqueóloga destemida com sede de aventura, tropeçou na tumba numa tarde fatídica enquanto escavava as areias do deserto. Ao afastar séculos de poeira e areia, desenterrou artefatos adornados com símbolos crípticos e entalhes intrincados. Intrigada pelos mistérios do passado, Sofia adentrou mais fundo na tumba, juntando pistas e desvendando os segredos da antiga civilização. E quando finalmente emergiu das profundezas, carregava consigo não apenas tesouros de valor incalculável, mas também um novo entendimento dos artefatos enigmáticos que haviam jazido ocultos por séculos.</t>
+  </si>
+  <si>
+    <t>Deep in the heart of the forest, there echoed the Songbird's Melody, a captivating tune that enchanted all who heard it. Elena, a young musician with a love for nature, stumbled upon the songbird one tranquil afternoon while wandering through the woodland. As she listened to the bird's sweet melody, she felt a sense of peace wash over her, as if the music itself held the secrets of the forest. Intrigued by the songbird's song, Elena spent days trying to mimic its melody, blending it with her own compositions to create harmonious symphonies. And when she finally performed her creation amidst the trees, she realized that the true beauty of music lay not just in its notes, but in the connection it forged between nature and the human soul.</t>
+  </si>
+  <si>
+    <t>No coração da floresta, ecoava a Melodia do Pássaro Cantor, uma música cativante que encantava todos que a ouviam. Elena, uma jovem músico com amor pela natureza, tropeçou no pássaro cantor numa tarde tranquila enquanto vagava pela mata. Ao ouvir a doce melodia do pássaro, sentiu uma sensação de paz inundá-la, como se a música mesma guardasse os segredos da floresta. Intrigada pela canção do pássaro, Elena passou dias tentando imitar sua melodia, mesclando-a com suas próprias composições para criar sinfonias harmoniosas. E quando finalmente apresentou sua criação entre as árvores, percebeu que a verdadeira beleza da música estava não apenas em suas notas, mas na conexão que ela forjava entre a natureza e a alma humana.</t>
+  </si>
+  <si>
+    <t>Deep within the labyrinthine caverns, there dwelled the Guardian of the Crystal Caverns, a mystical being tasked with protecting the precious crystals that lined the walls. Alex, a courageous adventurer with a thirst for discovery, stumbled upon the guardian one fateful night while exploring the depths of the earth. As he beheld the shimmering crystals and felt the guardian's watchful gaze, he knew he stood in the presence of something ancient and powerful. Determined to uncover the secrets of the caverns, Alex ventured deeper into the darkness, facing trials and challenges along the way. And when he finally reached the heart of the caverns, he discovered not only the treasures hidden within but also the true meaning of guardianship and responsibility.</t>
+  </si>
+  <si>
+    <t>No coração das cavernas labirínticas, habitava o Guardião das Cavernas de Cristal, um ser místico encarregado de proteger os preciosos cristais que revestiam as paredes. Alex, um aventureiro corajoso com sede de descoberta, tropeçou no guardião numa noite fatídica enquanto explorava as profundezas da terra. Ao contemplar os cristais cintilantes e sentir o olhar vigilante do guardião, sabia que estava diante de algo antigo e poderoso. Determinado a desvendar os segredos das cavernas, Alex aventurou-se mais fundo na escuridão, enfrentando provações e desafios pelo caminho. E quando finalmente alcançou o coração das cavernas, descobriu não apenas os tesouros escondidos dentro delas, mas também o verdadeiro significado de proteção e responsabilidade.</t>
+  </si>
+  <si>
+    <t>n the midst of the desert sands, there danced the Whirling Dervish, a mystical figure spinning in a trance-like state beneath the blazing sun. Fatima, a wandering storyteller with a thirst for adventure, stumbled upon the dervish one scorching afternoon while traversing the dunes. As she watched the dervish twirl and whirl with effortless grace, she felt herself drawn into the mesmerizing dance, lost in its hypnotic rhythms. Inspired by the dervish's movements, Fatima wove tales of magic and wonder, capturing the essence of the desert's allure in her stories. And when she finally bid farewell to the dervish and continued on her journey, she carried with her the memories of a dance that transcended time and space.</t>
+  </si>
+  <si>
+    <t>No meio das areias do deserto, dançava o Dervixe Giratório, uma figura mística girando em estado de transe sob o sol escaldante. Fatima, uma contadora de histórias errante com sede de aventura, tropeçou no dervixe numa tarde abrasadora enquanto percorria as dunas. Ao assistir o dervixe rodopiar com graça sem esforço, sentiu-se atraída pela dança hipnotizante, perdida em seus ritmos hipnóticos. Inspirada pelos movimentos do dervixe, Fatima teceu contos de magia e maravilha, capturando a essência do fascínio do deserto em suas histórias. E quando finalmente despediu-se do dervixe e prosseguiu em sua jornada, carregava consigo as memórias de uma dança que transcendia tempo e espaço.</t>
+  </si>
+  <si>
+    <t>Numa noite clara, quando as estrelas dançavam no céu, ecoava a melodia da sinfonia da luz das estrelas, um concerto celestial de beleza arrebatadora. Emily, uma musicista talentosa com amor pelo cosmos, ansiava capturar a essência da sinfonia em sua música. Armada com seu violino e um coração cheio de inspiração, embarcou numa jornada para compor a ode suprema às estrelas. Enquanto tocava sob o dossel cintilante do céu noturno, sentia a música entrelaçar-se à própria essência do universo, harmonizando-se com os ritmos celestiais do cosmos. E quando finalmente completou sua composição, sabia que havia criado mais do que apenas uma música - havia capturado a mágica emocionante da sinfonia da luz das estrelas para toda a eternidade.</t>
+  </si>
+  <si>
+    <t>On a clear night, when the stars danced in the sky, there echoed the melody of the starlight symphony, a celestial concert of breathtaking beauty. Emily, a gifted musician with a love for the cosmos, yearned to capture the essence of the symphony in her music. Armed with her violin and a heart full of inspiration, she embarked on a journey to compose the ultimate ode to the stars. As she played beneath the twinkling canopy of the night sky, she felt the music weave itself into the fabric of the universe, harmonizing with the celestial rhythms of the cosmos. And when she finally completed her composition, she knew that she had created more than just a song - she had captured the soul-stirring magic of the starlight symphony for all eternity.</t>
+  </si>
+  <si>
+    <t>No topo de um pico de montanha remoto, havia um observatório celestial, suas cúpulas alcançando as estrelas em busca de maravilhas cósmicas. David, um jovem astrônomo com paixão pelo cosmos, jornadeou até o observatório numa noite clara para contemplar os mistérios do universo. Ao espiar pelo telescópio, viu as galáxias em espiral e as nebulosas distantes, cada uma sendo um testemunho da imensidão do espaço. Inspirado pela beleza e complexidade do cosmos, David passou incontáveis noites no observatório, traçando os movimentos das estrelas e desvendando os segredos do universo. E quando finalmente fez uma descoberta revolucionária -  uma nova estrela escondida nas profundezas do espaço - sabia que sua jornada apenas começara.</t>
+  </si>
+  <si>
+    <t>Atop a remote mountain peak, there stood a celestial observatory, its domes reaching for the stars in search of cosmic wonders. David, a young astronomer with a passion for the cosmos, journeyed to the observatory one clear night to gaze upon the mysteries of the universe. As he peered through the telescope, he beheld the swirling galaxies and distant nebulae, each one a testament to the vastness of space. Inspired by the beauty and complexity of the cosmos, David spent countless nights at the observatory, charting the movements of the stars and unlocking the secrets of the universe. And when he finally made a groundbreaking discovery - a new star hidden within the depths of space - he knew that his journey had only just begun.</t>
+  </si>
+  <si>
+    <t>No coração das ruas labirínticas de uma cidade antiga, havia a oficina do alquimista, suas paredes adornadas com estranhos símbolos e diagramas místicos. Marcus, um jovem estudioso curioso com sede de conhecimento, tropeçou na oficina numa noite de lua cheia enquanto vagava pelos becos sinuosos da cidade. Intrigado pelos segredos contidos ali, mergulhou no mundo da alquimia, desvendando os mistérios da transmutação e transformação. Guiado pela sabedoria dos textos antigos, Marcus buscou desvendar a maior criação do alquimista -  a pedra filosofal, que dizem conceder a vida eterna. E quando finalmente descobriu a câmara escondida da pedra, percebeu que o verdadeiro legado do alquimista não era a imortalidade, mas a busca pelo conhecimento e a busca da verdade.</t>
+  </si>
+  <si>
+    <t>Deep within the labyrinthine streets of an ancient city, there lay the alchemist's workshop, its walls adorned with strange symbols and mystical diagrams. Marcus, a curious young scholar with a thirst for knowledge, stumbled upon the workshop one moonlit night while wandering through the city's winding alleys. Intrigued by the secrets held within, he delved into the world of alchemy, unlocking the mysteries of transmutation and transformation. Guided by the wisdom of the ancient texts, Marcus sought to uncover the alchemist's greatest creation - the philosopher's stone, said to grant eternal life. And when he finally uncovered the stone's hidden chamber, he realized that the true legacy of the alchemist was not immortality, but the quest for knowledge and the pursuit of truth.</t>
+  </si>
+  <si>
+    <t>Sob a tenda do circo, giravam e rangiam as engrenagens do circo mecânico, uma maravilha de maravilhas mecânicas. Jack, um jovem inventor curioso com habilidade para consertar, tropeçou no circo numa noite enquanto explorava as movimentadas ruas da cidade. Ao entrar na tenda, foi recebido por uma sinfonia de engrenagens e alavancas, cada engenho realizando seu próprio ato hipnotizante. Intrigado pela complexidade das máquinas, Jack juntou-se ao circo como aprendiz, aprendendo os segredos da arte da mecânica com os mestres artesãos. E quando finalmente apresentou sua própria criação - uma maravilha mecânica que dançava e rodopiava com a graça de uma bailarina —-sabia que havia encontrado sua verdadeira vocação no meio do espetáculo giratório do circo mecânico.</t>
+  </si>
+  <si>
+    <t>Under the big top of the circus, there whirred and clanked the machinery of the clockwork circus, a marvel of mechanical wonders. Jack, a curious young inventor with a penchant for tinkering, stumbled upon the circus one evening while exploring the bustling city streets. As he entered the tent, he was greeted by a symphony of gears and levers, each contraption performing its own mesmerizing act. Intrigued by the intricacy of the machines, Jack joined the circus as an apprentice, learning the secrets of clockwork craftsmanship from the master artisans. And when he finally presented his own creation - a mechanical marvel that danced and twirled with the grace of a ballerina - he knew that he had found his true calling amidst the whirling spectacle of the clockwork circus.</t>
+  </si>
+  <si>
+    <t>No topo do pico mais alto da cordilheira, erguia-se o Observatório da Luz das Estrelas, um santuário para observadores de estrelas e astrônomos. Emily, uma jovem astrônoma curiosa com paixão pelo cosmos, tropeçou no observatório numa noite clara enquanto caminhava pelo terreno acidentado. Ao espiar pelo telescópio, maravilhou-se com as maravilhas do universo reveladas diante de seus olhos. Hipnotizada pela dança das estrelas, Emily passou inúmeras noites no observatório, mapeando constelações e estudando fenômenos celestes. E quando finalmente fez uma descoberta revolucionária - uma nova estrela escondida no meio da tapeçaria do céu noturno - percebeu que a verdadeira beleza do cosmos não estava apenas em sua vastidão, mas nos infinitos mistérios esperando para serem desvendados.</t>
+  </si>
+  <si>
+    <t>Atop the highest peak of the mountain range, there stood the Starlight Observatory, a sanctuary for stargazers and astronomers alike. Emily, a curious young astronomer with a passion for the cosmos, stumbled upon the observatory one clear night while hiking through the rugged terrain. As she peered through the telescope, she marveled at the wonders of the universe laid bare before her eyes. Mesmerized by the dance of the stars, Emily spent countless nights at the observatory, charting constellations and studying celestial phenomena. And when she finally made a groundbreaking discovery - a new star hidden amidst the tapestry of the night sky - she realized that the true beauty of the cosmos lay not just in its vastness, but in the endless mysteries waiting to be uncovered.</t>
+  </si>
+  <si>
+    <t>In the vast expanse of the cosmos, there roamed the Astral Wanderer, a being of light and infinite curiosity. Ariadne, an intrepid explorer with a thirst for knowledge, encountered the wanderer one starlit night while journeying through the celestial realms. As she gazed into the wanderer's luminous eyes, she felt a connection transcending time and space, drawing her into an ethereal dance among the stars. Entranced by the wanderer's wisdom, Ariadne embarked on a cosmic voyage, traversing galaxies and unlocking the secrets of the universe. And when she finally returned to her own world, she carried with her not only the memories of her astral adventures but also a profound understanding of the interconnectedness of all things.</t>
+  </si>
+  <si>
+    <t>Na vasta extensão do cosmos, vagava o Navegador Astral, um ser de luz e curiosidade infinita. Ariadne, uma intrépida exploradora com sede de conhecimento, encontrou o navegante numa noite estrelada enquanto viajava pelos reinos celestiais. Ao fitar os olhos luminosos do navegante, sentiu uma conexão que transcendia tempo e espaço, atraindo-a para uma dança etérea entre as estrelas. Hipnotizada pela sabedoria do navegante, Ariadne embarcou numa viagem cósmica, atravessando galáxias e desvendando os segredos do universo. E quando finalmente retornou ao seu próprio mundo, carregava consigo não apenas as memórias de suas aventuras astrais, mas também uma compreensão profunda da interconexão de todas as coisas.</t>
+  </si>
+  <si>
+    <t>In the timeless realm of eternity, there resounded the Echoes of Eternity, whispers of the past and future entwined in a symphony of existence. Gabriel, a philosopher-poet with a soul attuned to the cosmos, encountered the echoes one moonlit night while meditating beneath the ancient oak tree. As he listened to the murmurs of time, he felt himself drawn into the eternal dance of creation, where each echo held the essence of a thousand lifetimes. Inspired by the echoes' wisdom, Gabriel embarked on a quest to unravel the mysteries of existence, delving into the depths of consciousness and exploring the boundaries of reality. And when he finally reached the precipice of understanding, he realized that the true meaning of eternity lay not in the endless expanse of time, but in the eternal journey of the soul.</t>
+  </si>
+  <si>
+    <t>No reino atemporal da eternidade, ressoavam os Ecos da Eternidade, sussurros do passado e do futuro entrelaçados numa sinfonia da existência. Gabriel, um filósofo-poeta com a alma sintonizada com o cosmos, encontrou os ecos numa noite iluminada pela lua enquanto meditava sob a antiga árvore carvalho. Ao ouvir os murmúrios do tempo, sentiu-se atraído para a dança eterna da criação, onde cada eco continha a essência de mil vidas. Inspirado pela sabedoria dos ecos, Gabriel embarcou numa jornada para desvendar os mistérios da existência, adentrando nas profundezas da consciência e explorando os limites da realidade. E quando finalmente alcançou o precipício do entendimento, percebeu que o verdadeiro significado da eternidade não estava na expansão infinita do tempo, mas na jornada eterna da alma.</t>
+  </si>
+  <si>
+    <t>Within the alchemist's sanctum, there lay the Alchemist's Legacy, a testament to the pursuit of truth and transformation. Sophia, a prodigious alchemist with a keen intellect, inherited the legacy one fateful day while exploring the depths of her ancestral home. As she uncovered the alchemist's ancient tomes and manuscripts, she felt a stirring within her soul, as if the secrets of the cosmos were whispering to her through the pages of history. Driven by a thirst for knowledge, Sophia delved into the alchemist's experiments, unraveling the mysteries of transmutation and unlocking the potential of the philosopher's stone. And when she finally achieved the pinnacle of alchemical mastery, she realized that the true legacy of the alchemist lay not in the transmutation of lead into gold, but in the transformation of the soul through the pursuit of wisdom.</t>
+  </si>
+  <si>
+    <t>Dentro do santuário do alquimista, jazia o Legado do Alquimista, um testemunho da busca da verdade e da transformação. Sophia, uma alquimista prodigiosa com um intelecto aguçado, herdou o legado num dia fatídico enquanto explorava as profundezas de sua casa ancestral. Ao descobrir os antigos tomos e manuscritos do alquimista, sentiu um movimento em sua alma, como se os segredos do cosmos estivessem sussurrando para ela através das páginas da história. Impulsionada por uma sede de conhecimento, Sophia adentrou nos experimentos do alquimista, desvendando os mistérios da transmutação e desbloqueando o potencial da pedra filosofal. E quando finalmente alcançou o ápice da maestria alquímica, percebeu que o verdadeiro legado do alquimista não estava na transmutação do chumbo em ouro, mas na transformação da alma através da busca pela sabedoria.</t>
+  </si>
+  <si>
+    <t>Within the walls of the Timeless Keep, there stood the Guardian, a timeless figure tasked with preserving the balance of past, present, and future. Isabella, a valiant warrior with a noble heart, encountered the Guardian one fateful night while embarking on a quest to restore harmony to the realms of time. As she faced the Guardian in the heart of the keep, she felt the weight of centuries upon her shoulders, knowing that the fate of existence itself rested in her hands. Determined to fulfill her destiny, Isabella engaged in a battle of wills with the Guardian, navigating through the corridors of time and space to safeguard the continuum of reality. And when she finally emerged victorious, she realized that the true essence of guardianship lay not in the protection of physical realms, but in the preservation of the eternal spirit that transcended all boundaries.</t>
+  </si>
+  <si>
+    <t>Dentro das paredes do Castelo Intemporal, erguia-se o Guardião, uma figura atemporal encarregada de preservar o equilíbrio do passado, presente e futuro. Isabella, uma valente guerreira com um coração nobre, encontrou o Guardião numa noite fatídica enquanto embarcava numa jornada para restaurar a harmonia nos reinos do tempo. Ao enfrentar o Guardião no coração do castelo, sentiu o peso dos séculos sobre seus ombros, sabendo que o destino da existência repousava em suas mãos. Determinada a cumprir seu destino, Isabella travou uma batalha de vontades com o Guardião, navegando pelos corredores do tempo e espaço para proteger o continuum da realidade. E quando finalmente emergiu vitoriosa, percebeu que a verdadeira essência da guarda não estava na proteção dos reinos físicos, mas na preservação do espírito eterno que transcendia todas as fronteiras.</t>
+  </si>
+  <si>
+    <t>Amidst the ethereal realm of the afterlife, there echoed the Symphony of Souls, a celestial melody that united spirits in harmony and peace. Alexander, a compassionate soul with a gift for empathy, encountered the symphony one transcendent night while journeying through the astral planes. As he listened to the melodic strains that permeated the cosmos, he felt a profound connection to the collective consciousness of all beings. Inspired by the symphony's resonance, Alexander embarked on a quest to alleviate suffering and bring solace to restless souls, weaving threads of compassion and understanding through the tapestry of existence. And when he finally ascended to the higher realms, he became one with the symphony, his essence merging with the eternal song of the universe.</t>
+  </si>
+  <si>
+    <t>No reino etéreo do além-vida, ecoava a Sinfonia das Almas, uma melodia celestial que unia os espíritos em harmonia e paz. Alexander, uma alma compassiva com o dom da empatia, encontrou a sinfonia numa noite transcendental enquanto viajava pelos planos astrais. Ao ouvir as melodiosas harmonias que permeavam o cosmos, sentiu uma conexão profunda com a consciência coletiva de todos os seres. Inspirado pela ressonância da sinfonia, Alexander embarcou numa jornada para aliviar o sofrimento e trazer conforto às almas inquietas, tecendo fios de compaixão e compreensão pelo tecido da existência. E quando finalmente ascendeu aos reinos superiores, tornou-se um com a sinfonia, sua essência fundindo-se com a canção eterna do universo.</t>
+  </si>
+  <si>
+    <t>In the realm of dreams, there danced the Ethereal Dancer, a figure of grace and enchantment moving through the mists of imagination. Lucia, a dreamer with a heart full of wonder, encountered the dancer one moonlit night while wandering through the landscapes of her own mind. As she watched the dancer weave through the ephemeral landscapes, she felt herself drawn into a dance of dreams, where reality and fantasy intertwined in a mesmerizing display. Inspired by the dancer's fluid movements, Lucia embarked on a journey through her own dreams, exploring the depths of her subconscious and unlocking the mysteries hidden within. And when she finally awoke from her slumber, she carried with her not only memories of the ethereal dance but also a newfound appreciation for the power of imagination to shape reality.</t>
+  </si>
+  <si>
+    <t>No reino dos sonhos, dançava a Dançarina Etérea, uma figura de graça e encantamento movendo-se pelos nevoeiros da imaginação. Lúcia, uma sonhadora com um coração cheio de admiração, encontrou a dançarina numa noite iluminada pela lua enquanto vagava pelas paisagens de sua própria mente. Ao observar a dançarina tecer pelas paisagens efêmeras, sentiu-se atraída para uma dança de sonhos, onde realidade e fantasia se entrelaçavam em um espetáculo hipnotizante. Inspirada pelos movimentos fluidos da dançarina, Lúcia embarcou numa jornada através de seus próprios sonhos, explorando as profundezas do seu subconsciente e desvendando os mistérios ocultos dentro dele. E quando finalmente acordou de seu sono, carregava consigo não apenas memórias da dança etérea, mas também uma nova apreciação pelo poder da imaginação para moldar a realidade.</t>
+  </si>
+  <si>
+    <t>Within the crucible of transformation, there bloomed the Alchemist's Revelation, a moment of enlightenment born from the fusion of elements and ideas. Marcus, a visionary alchemist with a quest for truth, encountered the revelation one stormy night while conducting experiments in his laboratory. As he witnessed the alchemical reactions unfolding before him, he felt a surge of insight pierce through the veil of ignorance, revealing the hidden truths of existence. Inspired by the alchemist's revelation, Marcus embarked on a journey of self-discovery, delving into the depths of his own soul and confronting the shadows that lurked within. And when he finally emerged from the crucible, he emerged not as a mere alchemist, but as a bearer of divine wisdom, ready to share his enlightenment with the world.</t>
+  </si>
+  <si>
+    <t>Dentro do cadinho de transformação, florescia a Revelação do Alquimista, um momento de iluminação nascido da fusão de elementos e ideias. Marcus, um alquimista visionário com uma busca pela verdade, encontrou a revelação numa noite tempestuosa enquanto conduzia experimentos em seu laboratório. Ao testemunhar as reações alquímicas se desdobrando diante dele, sentiu uma onda de insight atravessar o véu da ignorância, revelando as verdades ocultas da existência. Inspirado pela revelação do alquimista, Marcus embarcou numa jornada de autoconhecimento, adentrando nas profundezas de sua própria alma e confrontando as sombras que espreitavam dentro dele. E quando finalmente emergiu do cadinho, ele emergiu não apenas como um mero alquimista, mas como um portador de sabedoria divina, pronto para compartilhar sua iluminação com o mundo.</t>
+  </si>
+  <si>
+    <t>Deep within the heart of the Whispering Woods, there stood the Guardian, a silent sentinel watching over the secrets of the forest. Elena, a nature enthusiast with an affinity for ancient mysteries, encountered the Guardian one misty morning while wandering through the enchanted groves. As she gazed into the Guardian's wise eyes, she felt a sense of reverence for the ancient being that dwelled within the woods. Inspired by the Guardian's presence, Elena embarked on a journey to learn the hidden lore of the forest, delving into its depths and uncovering the magic that pulsed through its veins. And when she finally emerged from the woods, she carried with her not only the knowledge of the forest's secrets but also a deep appreciation for the delicate balance of nature.</t>
+  </si>
+  <si>
+    <t>No coração da Floresta Sussurrante, erguia-se o Guardião, um sentinela silencioso vigiando os segredos da floresta. Elena, uma entusiasta da natureza com afinidade por mistérios antigos, encontrou o Guardião numa manhã nebulosa enquanto vagava pelos bosques encantados. Ao fitar os sábios olhos do Guardião, sentiu uma sensação de reverência pela antiga entidade que habitava a floresta. Inspirada pela presença do Guardião, Elena embarcou numa jornada para aprender a sabedoria oculta da floresta, adentrando em suas profundezas e descobrindo a magia que pulsava em suas veias. E quando finalmente emergiu da floresta, carregava consigo não apenas o conhecimento dos segredos da floresta, mas também uma profunda apreciação pelo delicado equilíbrio da natureza.</t>
+  </si>
+  <si>
+    <t>In the vast expanse of the astral plane, there lay the Enigma of the Astral Nexus, a puzzle spanning galaxies and dimensions. Adrian, an intrepid explorer with a thirst for discovery, encountered the enigma one starry night while navigating the celestial currents. As he delved deeper into the mysteries of the astral nexus, he felt the fabric of reality shift and warp around him, revealing glimpses of hidden truths that defied comprehension. Driven by an insatiable curiosity, Adrian embarked on a cosmic odyssey, seeking to unravel the enigma and unlock the secrets of the universe. And when he finally reached the nexus's core, he found not only answers to age-old questions but also a newfound appreciation for the infinite complexity of existence.</t>
+  </si>
+  <si>
+    <t>Na vastidão do plano astral, jazia o Enigma do Nexus Astral, um quebra-cabeça que abrangia galáxias e dimensões. Adrian, um intrépido explorador com sede de descoberta, encontrou o enigma numa noite estrelada enquanto navegava pelas correntes celestiais. Ao adentrar nos mistérios do nexus astral, sentiu o tecido da realidade se deslocar e distorcer ao seu redor, revelando vislumbres de verdades ocultas que desafiavam a compreensão. Impulsionado por uma curiosidade insaciável, Adrian embarcou numa odisseia cósmica, buscando desvendar o enigma e desbloquear os segredos do universo. E quando finalmente alcançou o núcleo do nexus, encontrou não apenas respostas para perguntas antigas, mas também uma nova apreciação pela complexidade infinita da existência.</t>
+  </si>
+  <si>
+    <t>Across the boundless expanse of the cosmos, there embarked the Voyager, a seeker of truth and adventure navigating the stars. Lucas, an intrepid explorer with an insatiable curiosity, set forth on his quest one starry night, propelled by the desire to uncover the mysteries of the universe. As he journeyed through the celestial realms, he encountered wonders beyond imagination and challenges that tested his resolve. With each passing nebula and distant planet, Lucas delved deeper into the enigmas of existence, seeking answers to questions that had eluded even the wisest minds. And when he finally returned to his home among the stars, he carried with him not only the knowledge of his cosmic odyssey but also a profound understanding of the interconnectedness of all things.</t>
+  </si>
+  <si>
+    <t>Através da vasta extensão do cosmos, embarcou o Viajante, um buscador de verdade e aventura navegando pelas estrelas. Lucas, um intrépido explorador com uma curiosidade insaciável, partiu em sua jornada numa noite estrelada, impelido pelo desejo de desvendar os mistérios do universo. Ao percorrer os reinos celestiais, encontrou maravilhas além da imaginação e desafios que testaram sua determinação. A cada nebulosa passante e planeta distante, Lucas adentrou mais fundo nos enigmas da existência, buscando respostas para perguntas que haviam escapado até mesmo das mentes mais sábias. E quando finalmente retornou ao seu lar entre as estrelas, carregava consigo não apenas o conhecimento de sua odisseia cósmica, mas também uma compreensão profunda da interconexão de todas as coisas.</t>
+  </si>
+  <si>
+    <t>In the realm of creation, there wove the Weaver, a master artisan spinning the threads of existence into a tapestry of wonder and beauty. Sophia, a visionary artist with a heart full of creativity, encountered the weaver one fateful morning while wandering through the ethereal landscapes of her imagination. As she beheld the intricate patterns and vibrant colors of the weaver's tapestry, she felt a sense of awe and inspiration wash over her, igniting her own creative spirit. Inspired by the weaver's artistry, Sophia embarked on a journey of artistic exploration, weaving her own stories and dreams into the fabric of reality. And when she finally unveiled her masterpiece to the world, she knew that she had become not just an artist, but a co-creator of the universe's endless tapestry.</t>
+  </si>
+  <si>
+    <t>No reino da criação, tecia o Tecelão, um mestre artesão girando os fios da existência num tecido de maravilha e beleza. Sophia, uma artista visionária com um coração cheio de criatividade, encontrou o tecelão numa manhã fatídica enquanto vagava pelos cenários etéreos de sua imaginação. Ao contemplar os padrões intricados e as cores vibrantes do tecido do tecelão, sentiu uma sensação de admiração e inspiração inundá-la, acendendo seu próprio espírito criativo. Inspirada pela arte do tecelão, Sophia embarcou numa jornada de exploração artística, tecendo suas próprias histórias e sonhos no tecido da realidade. E quando finalmente revelou sua obra-prima ao mundo, sabia que havia se tornado não apenas uma artista, mas uma co-criadora do tecido infinito do universo.</t>
+  </si>
+  <si>
+    <t>In the ethereal realm where time and space converge, there weaves the Weaver, a master craftsman spinning the threads of destiny into a magnificent tapestry. Sophia, a wanderer of the cosmic paths, encountered the Weaver one starry night while traversing the celestial highways. As she observed the intricate patterns taking shape under the Weaver's skillful hands, she sensed the interconnectedness of all things and the delicate balance that governed the universe. Inspired by the Weaver's artistry, Sophia embarked on a journey to unravel the threads of her own fate, seeking to understand the role she played in the grand design of existence. And when she finally comprehended the intricate weave of her destiny, she realized that true freedom lay not in escaping one's fate but in embracing it with open arms.</t>
+  </si>
+  <si>
+    <t>No reino etéreo onde tempo e espaço convergem, tece-se o Tapeçeiro, um mestre artesão que gira os fios do destino numa tapeçaria magnífica. Sophia, uma viajante dos caminhos cósmicos, encontrou o Tapeçeiro numa noite estrelada enquanto percorria as estradas celestiais. Ao observar os padrões intricados tomando forma sob as habilidosas mãos do Tapeçeiro, ela sentiu a interconexão de todas as coisas e o delicado equilíbrio que governava o universo. Inspirada pela arte do Tapeçeiro, Sophia embarcou numa jornada para desvendar os fios de seu próprio destino, buscando compreender o papel que desempenhava no grande design da existência. E quando finalmente compreendeu o intricado tecido de seu destino, percebeu que a verdadeira liberdade não residia em escapar do próprio destino, mas em abraçá-lo de braços abertos.</t>
+  </si>
+  <si>
+    <t>Within the sacred temple of foresight, there resides the Oracle, a seeress who whispers the secrets of fate to those who seek her wisdom. Marcus, a seeker of truth with a thirst for knowledge, encountered the Oracle one mystical evening while journeying through the realms of the unknown. As he listened to the Oracle's cryptic words, he felt a shiver run down his spine, sensing the weight of destiny hanging in the balance. Inspired by the Oracle's prophecy, Marcus embarked on a quest to fulfill the foretold destiny, navigating through the twists and turns of fate to uncover the path that lay ahead. And when he finally stood at the crossroads of his own destiny, he realized that the power to shape the future lay not in the hands of the gods but in the choices he made in the present.</t>
+  </si>
+  <si>
+    <t>Dentro do templo sagrado da previsão, reside o Oráculo, uma vidente que sussurra os segredos do destino para aqueles que buscam sua sabedoria. Marcus, um buscador da verdade com sede de conhecimento, encontrou o Oráculo numa noite mística enquanto viajava pelos reinos do desconhecido. Ao ouvir as palavras crípticas do Oráculo, sentiu um arrepio percorrer sua espinha, percebendo o peso do destino pendurado na balança. Inspirado pela profecia do Oráculo, Marcus embarcou numa jornada para cumprir o destino predito, navegando pelos meandros do destino para descobrir o caminho que se estendia à frente. E quando finalmente estava diante da encruzilhada de seu próprio destino, percebeu que o poder de moldar o futuro não residia nas mãos dos deuses, mas nas escolhas que fazia no presente.</t>
   </si>
 </sst>
 </file>
@@ -321,10 +879,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61220B7C-F150-467A-9D9F-C84EC8D3223A}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,6 +1731,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="36" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1171,46 +1780,438 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76588EF-75A7-4E41-A208-7C670788773F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
+    </row>
+    <row r="3" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1220,157 +2221,437 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF2FF0B-CBC1-4C86-AE0A-E3189DACE9B4}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="165" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1381,7 +2662,462 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353823C1-10DD-4195-9270-E33725613174}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBFBFE2-A30C-42BA-B2FD-90EF2163999C}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1389,87 +3125,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBFBFE2-A30C-42BA-B2FD-90EF2163999C}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" customWidth="1"/>
-    <col min="3" max="3" width="54.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
+    <row r="2" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
